--- a/EVALUACIONES.xlsx
+++ b/EVALUACIONES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-EVAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DDACD5-C3C1-4A97-B67D-845AB9F7C424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB295F36-CE2A-4ADF-93F5-EDE6D37EAE9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{05315BF5-593F-40F2-806B-7ED0F494B287}"/>
   </bookViews>
@@ -7310,7 +7310,7 @@
   <dimension ref="A1:AW622"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/EVALUACIONES.xlsx
+++ b/EVALUACIONES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-EVAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB295F36-CE2A-4ADF-93F5-EDE6D37EAE9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23521C2A-FBD1-48ED-91B0-283969B42D96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{05315BF5-593F-40F2-806B-7ED0F494B287}"/>
   </bookViews>
@@ -7310,7 +7310,7 @@
   <dimension ref="A1:AW622"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/EVALUACIONES.xlsx
+++ b/EVALUACIONES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-EVAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF321A57-6528-4814-A6BB-F425E331B152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6231B9-C741-48DF-B594-E91579AB07DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{05315BF5-593F-40F2-806B-7ED0F494B287}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6687" uniqueCount="2286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7100" uniqueCount="2287">
   <si>
     <t>Año de protocolo</t>
   </si>
@@ -6901,6 +6901,9 @@
   </si>
   <si>
     <t>Presupuesto (CLP 2013)</t>
+  </si>
+  <si>
+    <t>Sin Información</t>
   </si>
 </sst>
 </file>
@@ -7313,8 +7316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA290BB2-80F6-49F4-A3D6-E7528565E1D4}">
   <dimension ref="A1:AX622"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10782,7 +10785,7 @@
         <v>186</v>
       </c>
       <c r="H36" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I36">
         <v>2012</v>
@@ -10859,7 +10862,7 @@
         <v>186</v>
       </c>
       <c r="H37" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I37">
         <v>2014</v>
@@ -10939,7 +10942,7 @@
         <v>151</v>
       </c>
       <c r="H38" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I38">
         <v>2008</v>
@@ -11232,7 +11235,7 @@
         <v>151</v>
       </c>
       <c r="H42" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I42">
         <v>2014</v>
@@ -11309,7 +11312,7 @@
         <v>51</v>
       </c>
       <c r="H43" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I43">
         <v>2009</v>
@@ -11386,7 +11389,7 @@
         <v>186</v>
       </c>
       <c r="H44" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I44">
         <v>1993</v>
@@ -11463,7 +11466,7 @@
         <v>151</v>
       </c>
       <c r="H45" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I45">
         <v>2013</v>
@@ -11543,7 +11546,7 @@
         <v>51</v>
       </c>
       <c r="H46" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I46">
         <v>2000</v>
@@ -11617,7 +11620,7 @@
         <v>521</v>
       </c>
       <c r="H47" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I47">
         <v>2014</v>
@@ -11685,7 +11688,7 @@
         <v>51</v>
       </c>
       <c r="H48" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I48">
         <v>2014</v>
@@ -11759,7 +11762,7 @@
         <v>186</v>
       </c>
       <c r="H49" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I49">
         <v>2014</v>
@@ -11833,7 +11836,7 @@
         <v>186</v>
       </c>
       <c r="H50" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I50">
         <v>2014</v>
@@ -11907,7 +11910,7 @@
         <v>51</v>
       </c>
       <c r="H51" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I51">
         <v>2004</v>
@@ -11984,7 +11987,7 @@
         <v>186</v>
       </c>
       <c r="H52" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I52">
         <v>2009</v>
@@ -12058,7 +12061,7 @@
         <v>151</v>
       </c>
       <c r="H53" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I53">
         <v>2009</v>
@@ -12132,7 +12135,7 @@
         <v>51</v>
       </c>
       <c r="H54" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I54">
         <v>2009</v>
@@ -12212,7 +12215,7 @@
         <v>186</v>
       </c>
       <c r="H55" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I55">
         <v>2015</v>
@@ -12292,7 +12295,7 @@
         <v>186</v>
       </c>
       <c r="H56" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I56">
         <v>2012</v>
@@ -12763,7 +12766,7 @@
         <v>795</v>
       </c>
       <c r="H62" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I62">
         <v>1990</v>
@@ -13963,7 +13966,7 @@
         <v>521</v>
       </c>
       <c r="H77" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I77">
         <v>2014</v>
@@ -14046,7 +14049,7 @@
         <v>521</v>
       </c>
       <c r="H78" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I78">
         <v>2014</v>
@@ -14126,7 +14129,7 @@
         <v>795</v>
       </c>
       <c r="H79" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I79">
         <v>2004</v>
@@ -14523,7 +14526,7 @@
         <v>764</v>
       </c>
       <c r="H84" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I84">
         <v>2011</v>
@@ -15059,7 +15062,7 @@
         <v>764</v>
       </c>
       <c r="H91" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I91">
         <v>2013</v>
@@ -15133,7 +15136,7 @@
         <v>764</v>
       </c>
       <c r="H92" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I92">
         <v>2009</v>
@@ -15358,7 +15361,7 @@
         <v>764</v>
       </c>
       <c r="H95" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I95">
         <v>2009</v>
@@ -15432,7 +15435,7 @@
         <v>795</v>
       </c>
       <c r="H96" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I96">
         <v>2011</v>
@@ -15512,7 +15515,7 @@
         <v>764</v>
       </c>
       <c r="H97" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I97">
         <v>2011</v>
@@ -15675,7 +15678,7 @@
         <v>764</v>
       </c>
       <c r="H99" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I99">
         <v>1995</v>
@@ -16057,7 +16060,7 @@
         <v>186</v>
       </c>
       <c r="H104" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I104">
         <v>2013</v>
@@ -16131,7 +16134,7 @@
         <v>764</v>
       </c>
       <c r="H105" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I105">
         <v>2012</v>
@@ -16208,7 +16211,7 @@
         <v>795</v>
       </c>
       <c r="H106" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I106">
         <v>1993</v>
@@ -16368,7 +16371,7 @@
         <v>764</v>
       </c>
       <c r="H108" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I108" t="s">
         <v>230</v>
@@ -16451,7 +16454,7 @@
         <v>795</v>
       </c>
       <c r="H109" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I109" t="s">
         <v>230</v>
@@ -18156,6 +18159,9 @@
       <c r="G131" t="s">
         <v>795</v>
       </c>
+      <c r="H131" t="s">
+        <v>2286</v>
+      </c>
       <c r="I131">
         <v>1999</v>
       </c>
@@ -18530,7 +18536,7 @@
         <v>1406</v>
       </c>
       <c r="H136" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I136">
         <v>1964</v>
@@ -18601,7 +18607,7 @@
         <v>1406</v>
       </c>
       <c r="H137" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I137">
         <v>1964</v>
@@ -18672,7 +18678,7 @@
         <v>1406</v>
       </c>
       <c r="H138" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I138">
         <v>1964</v>
@@ -18743,7 +18749,7 @@
         <v>795</v>
       </c>
       <c r="H139" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I139">
         <v>1964</v>
@@ -18817,7 +18823,7 @@
         <v>764</v>
       </c>
       <c r="H140" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I140">
         <v>1964</v>
@@ -18891,7 +18897,7 @@
         <v>795</v>
       </c>
       <c r="H141" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I141">
         <v>1964</v>
@@ -19267,7 +19273,7 @@
         <v>764</v>
       </c>
       <c r="H146" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I146">
         <v>2002</v>
@@ -19474,7 +19480,7 @@
         <v>764</v>
       </c>
       <c r="H149" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I149">
         <v>1993</v>
@@ -19847,7 +19853,7 @@
         <v>1406</v>
       </c>
       <c r="H154" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I154">
         <v>2010</v>
@@ -19924,7 +19930,7 @@
         <v>764</v>
       </c>
       <c r="H155" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I155">
         <v>2009</v>
@@ -20373,6 +20379,9 @@
       <c r="G161" t="s">
         <v>1177</v>
       </c>
+      <c r="H161" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y161" t="s">
         <v>1573</v>
       </c>
@@ -20411,6 +20420,9 @@
       <c r="G162" t="s">
         <v>1177</v>
       </c>
+      <c r="H162" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y162" t="s">
         <v>1573</v>
       </c>
@@ -20449,6 +20461,9 @@
       <c r="G163" t="s">
         <v>1177</v>
       </c>
+      <c r="H163" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y163" t="s">
         <v>1573</v>
       </c>
@@ -20487,6 +20502,9 @@
       <c r="G164" t="s">
         <v>1406</v>
       </c>
+      <c r="H164" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y164" t="s">
         <v>1573</v>
       </c>
@@ -20525,6 +20543,9 @@
       <c r="G165" t="s">
         <v>764</v>
       </c>
+      <c r="H165" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y165" t="s">
         <v>1573</v>
       </c>
@@ -20563,6 +20584,9 @@
       <c r="G166" t="s">
         <v>764</v>
       </c>
+      <c r="H166" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y166" t="s">
         <v>1573</v>
       </c>
@@ -20601,6 +20625,9 @@
       <c r="G167" t="s">
         <v>764</v>
       </c>
+      <c r="H167" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y167" t="s">
         <v>1573</v>
       </c>
@@ -20639,6 +20666,9 @@
       <c r="G168" t="s">
         <v>1406</v>
       </c>
+      <c r="H168" t="s">
+        <v>2286</v>
+      </c>
       <c r="V168" t="s">
         <v>333</v>
       </c>
@@ -20680,6 +20710,9 @@
       <c r="G169" t="s">
         <v>764</v>
       </c>
+      <c r="H169" t="s">
+        <v>2286</v>
+      </c>
       <c r="V169" t="s">
         <v>130</v>
       </c>
@@ -20721,6 +20754,9 @@
       <c r="G170" t="s">
         <v>1177</v>
       </c>
+      <c r="H170" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y170" t="s">
         <v>1573</v>
       </c>
@@ -20759,6 +20795,9 @@
       <c r="G171" t="s">
         <v>764</v>
       </c>
+      <c r="H171" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y171" t="s">
         <v>1573</v>
       </c>
@@ -20797,6 +20836,9 @@
       <c r="G172" t="s">
         <v>795</v>
       </c>
+      <c r="H172" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y172" t="s">
         <v>1573</v>
       </c>
@@ -20835,6 +20877,9 @@
       <c r="G173" t="s">
         <v>764</v>
       </c>
+      <c r="H173" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y173" t="s">
         <v>1573</v>
       </c>
@@ -20873,6 +20918,9 @@
       <c r="G174" t="s">
         <v>795</v>
       </c>
+      <c r="H174" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y174" t="s">
         <v>1573</v>
       </c>
@@ -20912,7 +20960,7 @@
         <v>1177</v>
       </c>
       <c r="H175" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I175">
         <v>2004</v>
@@ -21137,7 +21185,7 @@
         <v>1406</v>
       </c>
       <c r="H178" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I178">
         <v>2010</v>
@@ -21442,7 +21490,7 @@
         <v>1177</v>
       </c>
       <c r="H182" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I182">
         <v>2009</v>
@@ -21507,7 +21555,7 @@
         <v>1177</v>
       </c>
       <c r="H183" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I183">
         <v>1991</v>
@@ -21578,7 +21626,7 @@
         <v>1177</v>
       </c>
       <c r="H184" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I184" t="s">
         <v>230</v>
@@ -21646,7 +21694,7 @@
         <v>1177</v>
       </c>
       <c r="H185" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I185">
         <v>2008</v>
@@ -21717,7 +21765,7 @@
         <v>1177</v>
       </c>
       <c r="H186" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I186">
         <v>2009</v>
@@ -21794,7 +21842,7 @@
         <v>1177</v>
       </c>
       <c r="H187" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I187">
         <v>2010</v>
@@ -21868,7 +21916,7 @@
         <v>1177</v>
       </c>
       <c r="H188" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I188">
         <v>1992</v>
@@ -22016,7 +22064,7 @@
         <v>1177</v>
       </c>
       <c r="H190" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I190">
         <v>2011</v>
@@ -22084,7 +22132,7 @@
         <v>1177</v>
       </c>
       <c r="H191" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I191">
         <v>2003</v>
@@ -22297,7 +22345,7 @@
         <v>764</v>
       </c>
       <c r="H194" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I194">
         <v>2008</v>
@@ -22371,7 +22419,7 @@
         <v>764</v>
       </c>
       <c r="H195" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I195">
         <v>2008</v>
@@ -22445,7 +22493,7 @@
         <v>764</v>
       </c>
       <c r="H196" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I196">
         <v>2008</v>
@@ -22519,7 +22567,7 @@
         <v>764</v>
       </c>
       <c r="H197" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I197">
         <v>2008</v>
@@ -22593,7 +22641,7 @@
         <v>764</v>
       </c>
       <c r="H198" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I198">
         <v>2008</v>
@@ -22667,7 +22715,7 @@
         <v>764</v>
       </c>
       <c r="H199" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I199">
         <v>2008</v>
@@ -22741,7 +22789,7 @@
         <v>521</v>
       </c>
       <c r="H200" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I200">
         <v>2006</v>
@@ -22818,7 +22866,7 @@
         <v>764</v>
       </c>
       <c r="H201" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I201">
         <v>2007</v>
@@ -23122,6 +23170,9 @@
       <c r="G205" t="s">
         <v>764</v>
       </c>
+      <c r="H205" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y205" t="s">
         <v>1573</v>
       </c>
@@ -23160,6 +23211,9 @@
       <c r="G206" t="s">
         <v>764</v>
       </c>
+      <c r="H206" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y206" t="s">
         <v>1573</v>
       </c>
@@ -23198,6 +23252,9 @@
       <c r="G207" t="s">
         <v>764</v>
       </c>
+      <c r="H207" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y207" t="s">
         <v>1573</v>
       </c>
@@ -23236,6 +23293,9 @@
       <c r="G208" t="s">
         <v>764</v>
       </c>
+      <c r="H208" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y208" t="s">
         <v>1573</v>
       </c>
@@ -23274,6 +23334,9 @@
       <c r="G209" t="s">
         <v>764</v>
       </c>
+      <c r="H209" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y209" t="s">
         <v>1573</v>
       </c>
@@ -23312,6 +23375,9 @@
       <c r="G210" t="s">
         <v>1177</v>
       </c>
+      <c r="H210" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y210" t="s">
         <v>1573</v>
       </c>
@@ -23350,6 +23416,9 @@
       <c r="G211" t="s">
         <v>795</v>
       </c>
+      <c r="H211" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y211" t="s">
         <v>1573</v>
       </c>
@@ -23388,6 +23457,9 @@
       <c r="G212" t="s">
         <v>764</v>
       </c>
+      <c r="H212" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y212" t="s">
         <v>1573</v>
       </c>
@@ -23426,6 +23498,9 @@
       <c r="G213" t="s">
         <v>1177</v>
       </c>
+      <c r="H213" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y213" t="s">
         <v>1573</v>
       </c>
@@ -23464,6 +23539,9 @@
       <c r="G214" t="s">
         <v>1406</v>
       </c>
+      <c r="H214" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y214" t="s">
         <v>1573</v>
       </c>
@@ -23502,6 +23580,9 @@
       <c r="G215" t="s">
         <v>1406</v>
       </c>
+      <c r="H215" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y215" t="s">
         <v>1573</v>
       </c>
@@ -23540,6 +23621,9 @@
       <c r="G216" t="s">
         <v>521</v>
       </c>
+      <c r="H216" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y216" t="s">
         <v>1573</v>
       </c>
@@ -23578,6 +23662,9 @@
       <c r="G217" t="s">
         <v>1177</v>
       </c>
+      <c r="H217" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y217" t="s">
         <v>1573</v>
       </c>
@@ -23616,6 +23703,9 @@
       <c r="G218" t="s">
         <v>795</v>
       </c>
+      <c r="H218" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y218" t="s">
         <v>1573</v>
       </c>
@@ -23654,6 +23744,9 @@
       <c r="G219" t="s">
         <v>764</v>
       </c>
+      <c r="H219" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y219" t="s">
         <v>1573</v>
       </c>
@@ -23692,6 +23785,9 @@
       <c r="G220" t="s">
         <v>764</v>
       </c>
+      <c r="H220" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y220" t="s">
         <v>1573</v>
       </c>
@@ -23730,6 +23826,9 @@
       <c r="G221" t="s">
         <v>764</v>
       </c>
+      <c r="H221" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y221" t="s">
         <v>1573</v>
       </c>
@@ -23768,6 +23867,9 @@
       <c r="G222" t="s">
         <v>764</v>
       </c>
+      <c r="H222" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y222" t="s">
         <v>1573</v>
       </c>
@@ -23806,6 +23908,9 @@
       <c r="G223" t="s">
         <v>795</v>
       </c>
+      <c r="H223" t="s">
+        <v>2286</v>
+      </c>
       <c r="K223">
         <v>2954723000000</v>
       </c>
@@ -23850,6 +23955,9 @@
       <c r="G224" t="s">
         <v>1406</v>
       </c>
+      <c r="H224" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y224" t="s">
         <v>1573</v>
       </c>
@@ -23888,6 +23996,9 @@
       <c r="G225" t="s">
         <v>795</v>
       </c>
+      <c r="H225" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y225" t="s">
         <v>1573</v>
       </c>
@@ -23926,6 +24037,9 @@
       <c r="G226" t="s">
         <v>795</v>
       </c>
+      <c r="H226" t="s">
+        <v>2286</v>
+      </c>
       <c r="V226" t="s">
         <v>87</v>
       </c>
@@ -23967,6 +24081,9 @@
       <c r="G227" t="s">
         <v>764</v>
       </c>
+      <c r="H227" t="s">
+        <v>2286</v>
+      </c>
       <c r="L227" t="s">
         <v>391</v>
       </c>
@@ -24011,6 +24128,9 @@
       <c r="G228" t="s">
         <v>1406</v>
       </c>
+      <c r="H228" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y228" t="s">
         <v>1573</v>
       </c>
@@ -24049,6 +24169,9 @@
       <c r="G229" t="s">
         <v>1406</v>
       </c>
+      <c r="H229" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y229" t="s">
         <v>1573</v>
       </c>
@@ -24087,6 +24210,9 @@
       <c r="G230" t="s">
         <v>764</v>
       </c>
+      <c r="H230" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y230" t="s">
         <v>1573</v>
       </c>
@@ -24125,6 +24251,9 @@
       <c r="G231" t="s">
         <v>1406</v>
       </c>
+      <c r="H231" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y231" t="s">
         <v>1573</v>
       </c>
@@ -24163,6 +24292,9 @@
       <c r="G232" t="s">
         <v>764</v>
       </c>
+      <c r="H232" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y232" t="s">
         <v>1573</v>
       </c>
@@ -24267,7 +24399,7 @@
         <v>1177</v>
       </c>
       <c r="H234" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I234">
         <v>2009</v>
@@ -24337,6 +24469,9 @@
       <c r="G235" t="s">
         <v>1805</v>
       </c>
+      <c r="H235" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y235" t="s">
         <v>1573</v>
       </c>
@@ -24375,6 +24510,9 @@
       <c r="G236" t="s">
         <v>1807</v>
       </c>
+      <c r="H236" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y236" t="s">
         <v>1573</v>
       </c>
@@ -24798,6 +24936,9 @@
       <c r="G242" t="s">
         <v>1177</v>
       </c>
+      <c r="H242" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y242" t="s">
         <v>1573</v>
       </c>
@@ -24836,6 +24977,9 @@
       <c r="G243" t="s">
         <v>1807</v>
       </c>
+      <c r="H243" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y243" t="s">
         <v>1573</v>
       </c>
@@ -24874,6 +25018,9 @@
       <c r="G244" t="s">
         <v>1807</v>
       </c>
+      <c r="H244" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y244" t="s">
         <v>1573</v>
       </c>
@@ -24912,6 +25059,9 @@
       <c r="G245" t="s">
         <v>1807</v>
       </c>
+      <c r="H245" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y245" t="s">
         <v>1573</v>
       </c>
@@ -24950,6 +25100,9 @@
       <c r="G246" t="s">
         <v>1807</v>
       </c>
+      <c r="H246" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y246" t="s">
         <v>1573</v>
       </c>
@@ -24988,6 +25141,9 @@
       <c r="G247" t="s">
         <v>1807</v>
       </c>
+      <c r="H247" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y247" t="s">
         <v>1573</v>
       </c>
@@ -25026,6 +25182,9 @@
       <c r="G248" t="s">
         <v>1807</v>
       </c>
+      <c r="H248" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y248" t="s">
         <v>1573</v>
       </c>
@@ -25142,7 +25301,7 @@
         <v>764</v>
       </c>
       <c r="H250" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I250">
         <v>1990</v>
@@ -25222,7 +25381,7 @@
         <v>764</v>
       </c>
       <c r="H251" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I251">
         <v>1990</v>
@@ -25302,7 +25461,7 @@
         <v>764</v>
       </c>
       <c r="H252" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I252">
         <v>1990</v>
@@ -25382,7 +25541,7 @@
         <v>764</v>
       </c>
       <c r="H253" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I253">
         <v>1990</v>
@@ -25461,6 +25620,9 @@
       <c r="G254" t="s">
         <v>1848</v>
       </c>
+      <c r="H254" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y254" t="s">
         <v>1573</v>
       </c>
@@ -25499,6 +25661,9 @@
       <c r="G255" t="s">
         <v>1848</v>
       </c>
+      <c r="H255" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y255" t="s">
         <v>1573</v>
       </c>
@@ -25537,6 +25702,9 @@
       <c r="G256" t="s">
         <v>1848</v>
       </c>
+      <c r="H256" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y256" t="s">
         <v>1573</v>
       </c>
@@ -25576,7 +25744,7 @@
         <v>795</v>
       </c>
       <c r="H257" t="s">
-        <v>230</v>
+        <v>2286</v>
       </c>
       <c r="I257">
         <v>1990</v>
@@ -25655,6 +25823,9 @@
       <c r="G258" t="s">
         <v>1848</v>
       </c>
+      <c r="H258" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y258" t="s">
         <v>1573</v>
       </c>
@@ -25693,6 +25864,9 @@
       <c r="G259" t="s">
         <v>1177</v>
       </c>
+      <c r="H259" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y259" t="s">
         <v>1573</v>
       </c>
@@ -25731,6 +25905,9 @@
       <c r="G260" t="s">
         <v>1848</v>
       </c>
+      <c r="H260" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y260" t="s">
         <v>1573</v>
       </c>
@@ -25769,6 +25946,9 @@
       <c r="G261" t="s">
         <v>1177</v>
       </c>
+      <c r="H261" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y261" t="s">
         <v>1573</v>
       </c>
@@ -25807,6 +25987,9 @@
       <c r="G262" t="s">
         <v>1848</v>
       </c>
+      <c r="H262" t="s">
+        <v>2286</v>
+      </c>
       <c r="V262" t="s">
         <v>840</v>
       </c>
@@ -25848,6 +26031,9 @@
       <c r="G263" t="s">
         <v>1807</v>
       </c>
+      <c r="H263" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y263" t="s">
         <v>1573</v>
       </c>
@@ -26049,6 +26235,9 @@
       <c r="G266" t="s">
         <v>1807</v>
       </c>
+      <c r="H266" t="s">
+        <v>2286</v>
+      </c>
       <c r="Y266" t="s">
         <v>1573</v>
       </c>
@@ -26087,6 +26276,9 @@
       <c r="G267" t="s">
         <v>1807</v>
       </c>
+      <c r="H267" t="s">
+        <v>2286</v>
+      </c>
       <c r="X267">
         <v>0</v>
       </c>
@@ -26128,6 +26320,9 @@
       <c r="G268" t="s">
         <v>764</v>
       </c>
+      <c r="H268" t="s">
+        <v>2286</v>
+      </c>
       <c r="V268" t="s">
         <v>1875</v>
       </c>
@@ -26172,6 +26367,9 @@
       <c r="G269" t="s">
         <v>764</v>
       </c>
+      <c r="H269" t="s">
+        <v>2286</v>
+      </c>
       <c r="V269" t="s">
         <v>1875</v>
       </c>
@@ -26216,6 +26414,9 @@
       <c r="G270" t="s">
         <v>1177</v>
       </c>
+      <c r="H270" t="s">
+        <v>2286</v>
+      </c>
       <c r="X270">
         <v>0</v>
       </c>
@@ -26257,6 +26458,9 @@
       <c r="G271" t="s">
         <v>1177</v>
       </c>
+      <c r="H271" t="s">
+        <v>2286</v>
+      </c>
       <c r="X271">
         <v>0</v>
       </c>
@@ -26298,6 +26502,9 @@
       <c r="G272" t="s">
         <v>1848</v>
       </c>
+      <c r="H272" t="s">
+        <v>2286</v>
+      </c>
       <c r="X272">
         <v>0</v>
       </c>
@@ -26339,6 +26546,9 @@
       <c r="G273" t="s">
         <v>1881</v>
       </c>
+      <c r="H273" t="s">
+        <v>2286</v>
+      </c>
       <c r="X273">
         <v>0</v>
       </c>
@@ -26380,6 +26590,9 @@
       <c r="G274" t="s">
         <v>1848</v>
       </c>
+      <c r="H274" t="s">
+        <v>2286</v>
+      </c>
       <c r="X274">
         <v>0</v>
       </c>
@@ -26421,6 +26634,9 @@
       <c r="G275" t="s">
         <v>1848</v>
       </c>
+      <c r="H275" t="s">
+        <v>2286</v>
+      </c>
       <c r="X275">
         <v>0</v>
       </c>
@@ -26465,6 +26681,9 @@
       <c r="G276" t="s">
         <v>1177</v>
       </c>
+      <c r="H276" t="s">
+        <v>2286</v>
+      </c>
       <c r="X276">
         <v>0</v>
       </c>
@@ -26506,6 +26725,9 @@
       <c r="G277" t="s">
         <v>521</v>
       </c>
+      <c r="H277" t="s">
+        <v>2286</v>
+      </c>
       <c r="X277">
         <v>0</v>
       </c>
@@ -26547,6 +26769,9 @@
       <c r="G278" t="s">
         <v>764</v>
       </c>
+      <c r="H278" t="s">
+        <v>2286</v>
+      </c>
       <c r="X278">
         <v>0</v>
       </c>
@@ -26588,6 +26813,9 @@
       <c r="G279" t="s">
         <v>764</v>
       </c>
+      <c r="H279" t="s">
+        <v>2286</v>
+      </c>
       <c r="X279">
         <v>0</v>
       </c>
@@ -26629,6 +26857,9 @@
       <c r="G280" t="s">
         <v>1177</v>
       </c>
+      <c r="H280" t="s">
+        <v>2286</v>
+      </c>
       <c r="X280">
         <v>0</v>
       </c>
@@ -26750,6 +26981,9 @@
       <c r="G282" t="s">
         <v>1805</v>
       </c>
+      <c r="H282" t="s">
+        <v>2286</v>
+      </c>
       <c r="X282">
         <v>0</v>
       </c>
@@ -26791,6 +27025,9 @@
       <c r="G283" t="s">
         <v>795</v>
       </c>
+      <c r="H283" t="s">
+        <v>2286</v>
+      </c>
       <c r="X283">
         <v>0</v>
       </c>
@@ -26832,6 +27069,9 @@
       <c r="G284" t="s">
         <v>1177</v>
       </c>
+      <c r="H284" t="s">
+        <v>2286</v>
+      </c>
       <c r="X284">
         <v>0</v>
       </c>
@@ -26873,6 +27113,9 @@
       <c r="G285" t="s">
         <v>1848</v>
       </c>
+      <c r="H285" t="s">
+        <v>2286</v>
+      </c>
       <c r="X285">
         <v>0</v>
       </c>
@@ -26914,6 +27157,9 @@
       <c r="G286" t="s">
         <v>1881</v>
       </c>
+      <c r="H286" t="s">
+        <v>2286</v>
+      </c>
       <c r="X286">
         <v>0</v>
       </c>
@@ -26955,6 +27201,9 @@
       <c r="G287" t="s">
         <v>1807</v>
       </c>
+      <c r="H287" t="s">
+        <v>2286</v>
+      </c>
       <c r="X287">
         <v>0</v>
       </c>
@@ -26996,6 +27245,9 @@
       <c r="G288" t="s">
         <v>1848</v>
       </c>
+      <c r="H288" t="s">
+        <v>2286</v>
+      </c>
       <c r="X288">
         <v>0</v>
       </c>
@@ -27037,6 +27289,9 @@
       <c r="G289" t="s">
         <v>1177</v>
       </c>
+      <c r="H289" t="s">
+        <v>2286</v>
+      </c>
       <c r="X289">
         <v>0</v>
       </c>
@@ -27078,6 +27333,9 @@
       <c r="G290" t="s">
         <v>1177</v>
       </c>
+      <c r="H290" t="s">
+        <v>2286</v>
+      </c>
       <c r="X290">
         <v>0</v>
       </c>
@@ -27119,6 +27377,9 @@
       <c r="G291" t="s">
         <v>1177</v>
       </c>
+      <c r="H291" t="s">
+        <v>2286</v>
+      </c>
       <c r="X291">
         <v>0</v>
       </c>
@@ -27160,6 +27421,9 @@
       <c r="G292" t="s">
         <v>1848</v>
       </c>
+      <c r="H292" t="s">
+        <v>2286</v>
+      </c>
       <c r="X292">
         <v>0</v>
       </c>
@@ -27201,6 +27465,9 @@
       <c r="G293" t="s">
         <v>795</v>
       </c>
+      <c r="H293" t="s">
+        <v>2286</v>
+      </c>
       <c r="X293">
         <v>0</v>
       </c>
@@ -27242,6 +27509,9 @@
       <c r="G294" t="s">
         <v>795</v>
       </c>
+      <c r="H294" t="s">
+        <v>2286</v>
+      </c>
       <c r="X294">
         <v>0</v>
       </c>
@@ -27283,6 +27553,9 @@
       <c r="G295" t="s">
         <v>1406</v>
       </c>
+      <c r="H295" t="s">
+        <v>2286</v>
+      </c>
       <c r="L295" t="s">
         <v>1909</v>
       </c>
@@ -27327,6 +27600,9 @@
       <c r="G296" t="s">
         <v>764</v>
       </c>
+      <c r="H296" t="s">
+        <v>2286</v>
+      </c>
       <c r="X296">
         <v>0</v>
       </c>
@@ -27368,6 +27644,9 @@
       <c r="G297" t="s">
         <v>1177</v>
       </c>
+      <c r="H297" t="s">
+        <v>2286</v>
+      </c>
       <c r="X297">
         <v>0</v>
       </c>
@@ -27409,6 +27688,9 @@
       <c r="G298" t="s">
         <v>1177</v>
       </c>
+      <c r="H298" t="s">
+        <v>2286</v>
+      </c>
       <c r="X298">
         <v>0</v>
       </c>
@@ -27450,6 +27732,9 @@
       <c r="G299" t="s">
         <v>521</v>
       </c>
+      <c r="H299" t="s">
+        <v>2286</v>
+      </c>
       <c r="V299" t="s">
         <v>1913</v>
       </c>
@@ -27494,6 +27779,9 @@
       <c r="G300" t="s">
         <v>1881</v>
       </c>
+      <c r="H300" t="s">
+        <v>2286</v>
+      </c>
       <c r="L300" t="s">
         <v>346</v>
       </c>
@@ -27541,6 +27829,9 @@
       <c r="G301" t="s">
         <v>1848</v>
       </c>
+      <c r="H301" t="s">
+        <v>2286</v>
+      </c>
       <c r="X301">
         <v>0</v>
       </c>
@@ -27659,6 +27950,9 @@
       <c r="G303" t="s">
         <v>795</v>
       </c>
+      <c r="H303" t="s">
+        <v>2286</v>
+      </c>
       <c r="X303">
         <v>0</v>
       </c>
@@ -27866,6 +28160,9 @@
       <c r="G306" t="s">
         <v>1881</v>
       </c>
+      <c r="H306" t="s">
+        <v>2286</v>
+      </c>
       <c r="X306">
         <v>0</v>
       </c>
@@ -27907,6 +28204,9 @@
       <c r="G307" t="s">
         <v>1881</v>
       </c>
+      <c r="H307" t="s">
+        <v>2286</v>
+      </c>
       <c r="X307">
         <v>0</v>
       </c>
@@ -27948,6 +28248,9 @@
       <c r="G308" t="s">
         <v>1881</v>
       </c>
+      <c r="H308" t="s">
+        <v>2286</v>
+      </c>
       <c r="X308">
         <v>0</v>
       </c>
@@ -27989,6 +28292,9 @@
       <c r="G309" t="s">
         <v>1881</v>
       </c>
+      <c r="H309" t="s">
+        <v>2286</v>
+      </c>
       <c r="X309">
         <v>0</v>
       </c>
@@ -28030,6 +28336,9 @@
       <c r="G310" t="s">
         <v>1807</v>
       </c>
+      <c r="H310" t="s">
+        <v>2286</v>
+      </c>
       <c r="V310" t="s">
         <v>1689</v>
       </c>
@@ -28062,6 +28371,9 @@
       <c r="G311" t="s">
         <v>1807</v>
       </c>
+      <c r="H311" t="s">
+        <v>2286</v>
+      </c>
       <c r="X311">
         <v>0</v>
       </c>
@@ -28091,6 +28403,9 @@
       <c r="G312" t="s">
         <v>1881</v>
       </c>
+      <c r="H312" t="s">
+        <v>2286</v>
+      </c>
       <c r="X312">
         <v>0</v>
       </c>
@@ -28120,6 +28435,9 @@
       <c r="G313" t="s">
         <v>1848</v>
       </c>
+      <c r="H313" t="s">
+        <v>2286</v>
+      </c>
       <c r="X313">
         <v>0</v>
       </c>
@@ -28149,6 +28467,9 @@
       <c r="G314" t="s">
         <v>1807</v>
       </c>
+      <c r="H314" t="s">
+        <v>2286</v>
+      </c>
       <c r="X314">
         <v>0</v>
       </c>
@@ -28178,6 +28499,9 @@
       <c r="G315" t="s">
         <v>1848</v>
       </c>
+      <c r="H315" t="s">
+        <v>2286</v>
+      </c>
       <c r="X315">
         <v>0</v>
       </c>
@@ -28207,6 +28531,9 @@
       <c r="G316" t="s">
         <v>1807</v>
       </c>
+      <c r="H316" t="s">
+        <v>2286</v>
+      </c>
       <c r="X316">
         <v>0</v>
       </c>
@@ -28236,6 +28563,9 @@
       <c r="G317" t="s">
         <v>1951</v>
       </c>
+      <c r="H317" t="s">
+        <v>2286</v>
+      </c>
       <c r="X317">
         <v>0</v>
       </c>
@@ -28265,6 +28595,9 @@
       <c r="G318" t="s">
         <v>1951</v>
       </c>
+      <c r="H318" t="s">
+        <v>2286</v>
+      </c>
       <c r="X318">
         <v>0</v>
       </c>
@@ -28294,6 +28627,9 @@
       <c r="G319" t="s">
         <v>1848</v>
       </c>
+      <c r="H319" t="s">
+        <v>2286</v>
+      </c>
       <c r="L319" t="s">
         <v>1336</v>
       </c>
@@ -28326,6 +28662,9 @@
       <c r="G320" t="s">
         <v>1881</v>
       </c>
+      <c r="H320" t="s">
+        <v>2286</v>
+      </c>
       <c r="L320" t="s">
         <v>1336</v>
       </c>
@@ -28358,6 +28697,9 @@
       <c r="G321" t="s">
         <v>1881</v>
       </c>
+      <c r="H321" t="s">
+        <v>2286</v>
+      </c>
       <c r="X321">
         <v>0</v>
       </c>
@@ -28387,6 +28729,9 @@
       <c r="G322" t="s">
         <v>1177</v>
       </c>
+      <c r="H322" t="s">
+        <v>2286</v>
+      </c>
       <c r="L322" t="s">
         <v>1164</v>
       </c>
@@ -28419,6 +28764,9 @@
       <c r="G323" t="s">
         <v>1177</v>
       </c>
+      <c r="H323" t="s">
+        <v>2286</v>
+      </c>
       <c r="L323" t="s">
         <v>1164</v>
       </c>
@@ -28451,6 +28799,9 @@
       <c r="G324" t="s">
         <v>1177</v>
       </c>
+      <c r="H324" t="s">
+        <v>2286</v>
+      </c>
       <c r="L324" t="s">
         <v>1164</v>
       </c>
@@ -28483,6 +28834,9 @@
       <c r="G325" t="s">
         <v>1848</v>
       </c>
+      <c r="H325" t="s">
+        <v>2286</v>
+      </c>
       <c r="X325">
         <v>0</v>
       </c>
@@ -28512,6 +28866,9 @@
       <c r="G326" t="s">
         <v>1807</v>
       </c>
+      <c r="H326" t="s">
+        <v>2286</v>
+      </c>
       <c r="L326" t="s">
         <v>1316</v>
       </c>
@@ -28544,6 +28901,9 @@
       <c r="G327" t="s">
         <v>1807</v>
       </c>
+      <c r="H327" t="s">
+        <v>2286</v>
+      </c>
       <c r="L327" t="s">
         <v>1316</v>
       </c>
@@ -28576,6 +28936,9 @@
       <c r="G328" t="s">
         <v>1807</v>
       </c>
+      <c r="H328" t="s">
+        <v>2286</v>
+      </c>
       <c r="L328" t="s">
         <v>1316</v>
       </c>
@@ -28608,6 +28971,9 @@
       <c r="G329" t="s">
         <v>1807</v>
       </c>
+      <c r="H329" t="s">
+        <v>2286</v>
+      </c>
       <c r="L329" t="s">
         <v>1316</v>
       </c>
@@ -28640,6 +29006,9 @@
       <c r="G330" t="s">
         <v>1807</v>
       </c>
+      <c r="H330" t="s">
+        <v>2286</v>
+      </c>
       <c r="L330" t="s">
         <v>1316</v>
       </c>
@@ -28672,6 +29041,9 @@
       <c r="G331" t="s">
         <v>1807</v>
       </c>
+      <c r="H331" t="s">
+        <v>2286</v>
+      </c>
       <c r="L331" t="s">
         <v>1316</v>
       </c>
@@ -28704,6 +29076,9 @@
       <c r="G332" t="s">
         <v>1807</v>
       </c>
+      <c r="H332" t="s">
+        <v>2286</v>
+      </c>
       <c r="X332">
         <v>0</v>
       </c>
@@ -28733,6 +29108,9 @@
       <c r="G333" t="s">
         <v>1848</v>
       </c>
+      <c r="H333" t="s">
+        <v>2286</v>
+      </c>
       <c r="L333" t="s">
         <v>1336</v>
       </c>
@@ -28765,6 +29143,9 @@
       <c r="G334" t="s">
         <v>1177</v>
       </c>
+      <c r="H334" t="s">
+        <v>2286</v>
+      </c>
       <c r="X334">
         <v>0</v>
       </c>
@@ -28794,6 +29175,9 @@
       <c r="G335" t="s">
         <v>1848</v>
       </c>
+      <c r="H335" t="s">
+        <v>2286</v>
+      </c>
       <c r="X335">
         <v>0</v>
       </c>
@@ -28823,6 +29207,9 @@
       <c r="G336" t="s">
         <v>1177</v>
       </c>
+      <c r="H336" t="s">
+        <v>2286</v>
+      </c>
       <c r="X336">
         <v>0</v>
       </c>
@@ -28852,6 +29239,9 @@
       <c r="G337" t="s">
         <v>1177</v>
       </c>
+      <c r="H337" t="s">
+        <v>2286</v>
+      </c>
       <c r="X337">
         <v>0</v>
       </c>
@@ -28881,6 +29271,9 @@
       <c r="G338" t="s">
         <v>1177</v>
       </c>
+      <c r="H338" t="s">
+        <v>2286</v>
+      </c>
       <c r="X338">
         <v>0</v>
       </c>
@@ -28910,6 +29303,9 @@
       <c r="G339" t="s">
         <v>1805</v>
       </c>
+      <c r="H339" t="s">
+        <v>2286</v>
+      </c>
       <c r="X339">
         <v>0</v>
       </c>
@@ -28939,6 +29335,9 @@
       <c r="G340" t="s">
         <v>1951</v>
       </c>
+      <c r="H340" t="s">
+        <v>2286</v>
+      </c>
       <c r="X340">
         <v>0</v>
       </c>
@@ -28968,6 +29367,9 @@
       <c r="G341" t="s">
         <v>1807</v>
       </c>
+      <c r="H341" t="s">
+        <v>2286</v>
+      </c>
       <c r="X341">
         <v>0</v>
       </c>
@@ -28997,6 +29399,9 @@
       <c r="G342" t="s">
         <v>1805</v>
       </c>
+      <c r="H342" t="s">
+        <v>2286</v>
+      </c>
       <c r="X342">
         <v>0</v>
       </c>
@@ -29026,6 +29431,9 @@
       <c r="G343" t="s">
         <v>1848</v>
       </c>
+      <c r="H343" t="s">
+        <v>2286</v>
+      </c>
       <c r="X343">
         <v>0</v>
       </c>
@@ -29055,6 +29463,9 @@
       <c r="G344" t="s">
         <v>1881</v>
       </c>
+      <c r="H344" t="s">
+        <v>2286</v>
+      </c>
       <c r="X344">
         <v>0</v>
       </c>
@@ -29084,6 +29495,9 @@
       <c r="G345" t="s">
         <v>1177</v>
       </c>
+      <c r="H345" t="s">
+        <v>2286</v>
+      </c>
       <c r="X345">
         <v>0</v>
       </c>
@@ -29113,6 +29527,9 @@
       <c r="G346" t="s">
         <v>1881</v>
       </c>
+      <c r="H346" t="s">
+        <v>2286</v>
+      </c>
       <c r="L346" t="s">
         <v>1909</v>
       </c>
@@ -29145,6 +29562,9 @@
       <c r="G347" t="s">
         <v>1848</v>
       </c>
+      <c r="H347" t="s">
+        <v>2286</v>
+      </c>
       <c r="X347">
         <v>0</v>
       </c>
@@ -29174,6 +29594,9 @@
       <c r="G348" t="s">
         <v>1807</v>
       </c>
+      <c r="H348" t="s">
+        <v>2286</v>
+      </c>
       <c r="X348">
         <v>0</v>
       </c>
@@ -29203,6 +29626,9 @@
       <c r="G349" t="s">
         <v>1807</v>
       </c>
+      <c r="H349" t="s">
+        <v>2286</v>
+      </c>
       <c r="X349">
         <v>0</v>
       </c>
@@ -29232,6 +29658,9 @@
       <c r="G350" t="s">
         <v>1807</v>
       </c>
+      <c r="H350" t="s">
+        <v>2286</v>
+      </c>
       <c r="X350">
         <v>0</v>
       </c>
@@ -29261,6 +29690,9 @@
       <c r="G351" t="s">
         <v>1881</v>
       </c>
+      <c r="H351" t="s">
+        <v>2286</v>
+      </c>
       <c r="L351" t="s">
         <v>1909</v>
       </c>
@@ -29293,6 +29725,9 @@
       <c r="G352" t="s">
         <v>1951</v>
       </c>
+      <c r="H352" t="s">
+        <v>2286</v>
+      </c>
       <c r="X352">
         <v>0</v>
       </c>
@@ -29322,6 +29757,9 @@
       <c r="G353" t="s">
         <v>1848</v>
       </c>
+      <c r="H353" t="s">
+        <v>2286</v>
+      </c>
       <c r="X353">
         <v>0</v>
       </c>
@@ -29351,6 +29789,9 @@
       <c r="G354" t="s">
         <v>1881</v>
       </c>
+      <c r="H354" t="s">
+        <v>2286</v>
+      </c>
       <c r="X354">
         <v>0</v>
       </c>
@@ -29380,6 +29821,9 @@
       <c r="G355" t="s">
         <v>1881</v>
       </c>
+      <c r="H355" t="s">
+        <v>2286</v>
+      </c>
       <c r="X355">
         <v>0</v>
       </c>
@@ -29409,6 +29853,9 @@
       <c r="G356" t="s">
         <v>1848</v>
       </c>
+      <c r="H356" t="s">
+        <v>2286</v>
+      </c>
       <c r="L356" t="s">
         <v>1909</v>
       </c>
@@ -29441,6 +29888,9 @@
       <c r="G357" t="s">
         <v>1807</v>
       </c>
+      <c r="H357" t="s">
+        <v>2286</v>
+      </c>
       <c r="L357" t="s">
         <v>1909</v>
       </c>
@@ -29473,6 +29923,9 @@
       <c r="G358" t="s">
         <v>1848</v>
       </c>
+      <c r="H358" t="s">
+        <v>2286</v>
+      </c>
       <c r="L358" t="s">
         <v>1909</v>
       </c>
@@ -29505,6 +29958,9 @@
       <c r="G359" t="s">
         <v>1805</v>
       </c>
+      <c r="H359" t="s">
+        <v>2286</v>
+      </c>
       <c r="L359" t="s">
         <v>1909</v>
       </c>
@@ -29537,6 +29993,9 @@
       <c r="G360" t="s">
         <v>1848</v>
       </c>
+      <c r="H360" t="s">
+        <v>2286</v>
+      </c>
       <c r="X360">
         <v>0</v>
       </c>
@@ -29566,6 +30025,9 @@
       <c r="G361" t="s">
         <v>1807</v>
       </c>
+      <c r="H361" t="s">
+        <v>2286</v>
+      </c>
       <c r="L361" t="s">
         <v>1909</v>
       </c>
@@ -29598,6 +30060,9 @@
       <c r="G362" t="s">
         <v>1848</v>
       </c>
+      <c r="H362" t="s">
+        <v>2286</v>
+      </c>
       <c r="L362" t="s">
         <v>1909</v>
       </c>
@@ -29630,6 +30095,9 @@
       <c r="G363" t="s">
         <v>1881</v>
       </c>
+      <c r="H363" t="s">
+        <v>2286</v>
+      </c>
       <c r="X363">
         <v>0</v>
       </c>
@@ -29659,6 +30127,9 @@
       <c r="G364" t="s">
         <v>1951</v>
       </c>
+      <c r="H364" t="s">
+        <v>2286</v>
+      </c>
       <c r="X364">
         <v>0</v>
       </c>
@@ -29688,6 +30159,9 @@
       <c r="G365" t="s">
         <v>1951</v>
       </c>
+      <c r="H365" t="s">
+        <v>2286</v>
+      </c>
       <c r="X365">
         <v>0</v>
       </c>
@@ -29717,6 +30191,9 @@
       <c r="G366" t="s">
         <v>1177</v>
       </c>
+      <c r="H366" t="s">
+        <v>2286</v>
+      </c>
       <c r="X366">
         <v>0</v>
       </c>
@@ -29746,6 +30223,9 @@
       <c r="G367" t="s">
         <v>1177</v>
       </c>
+      <c r="H367" t="s">
+        <v>2286</v>
+      </c>
       <c r="X367">
         <v>0</v>
       </c>
@@ -29775,6 +30255,9 @@
       <c r="G368" t="s">
         <v>1807</v>
       </c>
+      <c r="H368" t="s">
+        <v>2286</v>
+      </c>
       <c r="X368">
         <v>0</v>
       </c>
@@ -29804,6 +30287,9 @@
       <c r="G369" t="s">
         <v>1807</v>
       </c>
+      <c r="H369" t="s">
+        <v>2286</v>
+      </c>
       <c r="X369">
         <v>0</v>
       </c>
@@ -29833,6 +30319,9 @@
       <c r="G370" t="s">
         <v>1177</v>
       </c>
+      <c r="H370" t="s">
+        <v>2286</v>
+      </c>
       <c r="X370">
         <v>0</v>
       </c>
@@ -29862,6 +30351,9 @@
       <c r="G371" t="s">
         <v>1807</v>
       </c>
+      <c r="H371" t="s">
+        <v>2286</v>
+      </c>
       <c r="X371">
         <v>0</v>
       </c>
@@ -29891,6 +30383,9 @@
       <c r="G372" t="s">
         <v>1807</v>
       </c>
+      <c r="H372" t="s">
+        <v>2286</v>
+      </c>
       <c r="X372">
         <v>0</v>
       </c>
@@ -29920,6 +30415,9 @@
       <c r="G373" t="s">
         <v>1807</v>
       </c>
+      <c r="H373" t="s">
+        <v>2286</v>
+      </c>
       <c r="L373" t="s">
         <v>1909</v>
       </c>
@@ -29952,6 +30450,9 @@
       <c r="G374" t="s">
         <v>1848</v>
       </c>
+      <c r="H374" t="s">
+        <v>2286</v>
+      </c>
       <c r="L374" t="s">
         <v>1909</v>
       </c>
@@ -29984,6 +30485,9 @@
       <c r="G375" t="s">
         <v>1951</v>
       </c>
+      <c r="H375" t="s">
+        <v>2286</v>
+      </c>
       <c r="X375">
         <v>0</v>
       </c>
@@ -30013,6 +30517,9 @@
       <c r="G376" t="s">
         <v>1805</v>
       </c>
+      <c r="H376" t="s">
+        <v>2286</v>
+      </c>
       <c r="X376">
         <v>0</v>
       </c>
@@ -30042,6 +30549,9 @@
       <c r="G377" t="s">
         <v>1848</v>
       </c>
+      <c r="H377" t="s">
+        <v>2286</v>
+      </c>
       <c r="X377">
         <v>0</v>
       </c>
@@ -30071,6 +30581,9 @@
       <c r="G378" t="s">
         <v>1881</v>
       </c>
+      <c r="H378" t="s">
+        <v>2286</v>
+      </c>
       <c r="L378" t="s">
         <v>1145</v>
       </c>
@@ -30103,6 +30616,9 @@
       <c r="G379" t="s">
         <v>1807</v>
       </c>
+      <c r="H379" t="s">
+        <v>2286</v>
+      </c>
       <c r="X379">
         <v>0</v>
       </c>
@@ -30132,6 +30648,9 @@
       <c r="G380" t="s">
         <v>1807</v>
       </c>
+      <c r="H380" t="s">
+        <v>2286</v>
+      </c>
       <c r="X380">
         <v>0</v>
       </c>
@@ -30161,6 +30680,9 @@
       <c r="G381" t="s">
         <v>1177</v>
       </c>
+      <c r="H381" t="s">
+        <v>2286</v>
+      </c>
       <c r="X381">
         <v>0</v>
       </c>
@@ -30190,6 +30712,9 @@
       <c r="G382" t="s">
         <v>1848</v>
       </c>
+      <c r="H382" t="s">
+        <v>2286</v>
+      </c>
       <c r="X382">
         <v>0</v>
       </c>
@@ -30219,6 +30744,9 @@
       <c r="G383" t="s">
         <v>1848</v>
       </c>
+      <c r="H383" t="s">
+        <v>2286</v>
+      </c>
       <c r="X383">
         <v>0</v>
       </c>
@@ -30248,6 +30776,9 @@
       <c r="G384" t="s">
         <v>1807</v>
       </c>
+      <c r="H384" t="s">
+        <v>2286</v>
+      </c>
       <c r="X384">
         <v>0</v>
       </c>
@@ -30277,6 +30808,9 @@
       <c r="G385" t="s">
         <v>1881</v>
       </c>
+      <c r="H385" t="s">
+        <v>2286</v>
+      </c>
       <c r="V385" t="s">
         <v>1875</v>
       </c>
@@ -30309,6 +30843,9 @@
       <c r="G386" t="s">
         <v>1881</v>
       </c>
+      <c r="H386" t="s">
+        <v>2286</v>
+      </c>
       <c r="X386">
         <v>0</v>
       </c>
@@ -30338,6 +30875,9 @@
       <c r="G387" t="s">
         <v>1881</v>
       </c>
+      <c r="H387" t="s">
+        <v>2286</v>
+      </c>
       <c r="X387">
         <v>0</v>
       </c>
@@ -30367,6 +30907,9 @@
       <c r="G388" t="s">
         <v>1807</v>
       </c>
+      <c r="H388" t="s">
+        <v>2286</v>
+      </c>
       <c r="L388" t="s">
         <v>207</v>
       </c>
@@ -30402,6 +30945,9 @@
       <c r="G389" t="s">
         <v>1807</v>
       </c>
+      <c r="H389" t="s">
+        <v>2286</v>
+      </c>
       <c r="X389">
         <v>0</v>
       </c>
@@ -30431,6 +30977,9 @@
       <c r="G390" t="s">
         <v>1881</v>
       </c>
+      <c r="H390" t="s">
+        <v>2286</v>
+      </c>
       <c r="X390">
         <v>0</v>
       </c>
@@ -30460,6 +31009,9 @@
       <c r="G391" t="s">
         <v>1177</v>
       </c>
+      <c r="H391" t="s">
+        <v>2286</v>
+      </c>
       <c r="X391">
         <v>0</v>
       </c>
@@ -30489,6 +31041,9 @@
       <c r="G392" t="s">
         <v>1848</v>
       </c>
+      <c r="H392" t="s">
+        <v>2286</v>
+      </c>
       <c r="X392">
         <v>0</v>
       </c>
@@ -30518,6 +31073,9 @@
       <c r="G393" t="s">
         <v>1848</v>
       </c>
+      <c r="H393" t="s">
+        <v>2286</v>
+      </c>
       <c r="X393">
         <v>0</v>
       </c>
@@ -30547,6 +31105,9 @@
       <c r="G394" t="s">
         <v>1848</v>
       </c>
+      <c r="H394" t="s">
+        <v>2286</v>
+      </c>
       <c r="X394">
         <v>0</v>
       </c>
@@ -30576,6 +31137,9 @@
       <c r="G395" t="s">
         <v>1807</v>
       </c>
+      <c r="H395" t="s">
+        <v>2286</v>
+      </c>
       <c r="X395">
         <v>0</v>
       </c>
@@ -30605,6 +31169,9 @@
       <c r="G396" t="s">
         <v>1807</v>
       </c>
+      <c r="H396" t="s">
+        <v>2286</v>
+      </c>
       <c r="X396">
         <v>0</v>
       </c>
@@ -30634,6 +31201,9 @@
       <c r="G397" t="s">
         <v>1951</v>
       </c>
+      <c r="H397" t="s">
+        <v>2286</v>
+      </c>
       <c r="X397">
         <v>0</v>
       </c>
@@ -30663,6 +31233,9 @@
       <c r="G398" t="s">
         <v>1881</v>
       </c>
+      <c r="H398" t="s">
+        <v>2286</v>
+      </c>
       <c r="V398" t="s">
         <v>821</v>
       </c>
@@ -30695,6 +31268,9 @@
       <c r="G399" t="s">
         <v>1805</v>
       </c>
+      <c r="H399" t="s">
+        <v>2286</v>
+      </c>
       <c r="X399">
         <v>0</v>
       </c>
@@ -30724,6 +31300,9 @@
       <c r="G400" t="s">
         <v>1807</v>
       </c>
+      <c r="H400" t="s">
+        <v>2286</v>
+      </c>
       <c r="X400">
         <v>0</v>
       </c>
@@ -30753,6 +31332,9 @@
       <c r="G401" t="s">
         <v>1848</v>
       </c>
+      <c r="H401" t="s">
+        <v>2286</v>
+      </c>
       <c r="X401">
         <v>0</v>
       </c>
@@ -30782,6 +31364,9 @@
       <c r="G402" t="s">
         <v>1951</v>
       </c>
+      <c r="H402" t="s">
+        <v>2286</v>
+      </c>
       <c r="X402">
         <v>0</v>
       </c>
@@ -30811,6 +31396,9 @@
       <c r="G403" t="s">
         <v>1848</v>
       </c>
+      <c r="H403" t="s">
+        <v>2286</v>
+      </c>
       <c r="X403">
         <v>0</v>
       </c>
@@ -30840,6 +31428,9 @@
       <c r="G404" t="s">
         <v>1848</v>
       </c>
+      <c r="H404" t="s">
+        <v>2286</v>
+      </c>
       <c r="W404" t="s">
         <v>2051</v>
       </c>
@@ -30872,6 +31463,9 @@
       <c r="G405" t="s">
         <v>1807</v>
       </c>
+      <c r="H405" t="s">
+        <v>2286</v>
+      </c>
       <c r="X405">
         <v>0</v>
       </c>
@@ -30901,6 +31495,9 @@
       <c r="G406" t="s">
         <v>1807</v>
       </c>
+      <c r="H406" t="s">
+        <v>2286</v>
+      </c>
       <c r="X406">
         <v>0</v>
       </c>
@@ -30930,6 +31527,9 @@
       <c r="G407" t="s">
         <v>1848</v>
       </c>
+      <c r="H407" t="s">
+        <v>2286</v>
+      </c>
       <c r="X407">
         <v>0</v>
       </c>
@@ -30959,6 +31559,9 @@
       <c r="G408" t="s">
         <v>1881</v>
       </c>
+      <c r="H408" t="s">
+        <v>2286</v>
+      </c>
       <c r="X408">
         <v>0</v>
       </c>
@@ -30988,6 +31591,9 @@
       <c r="G409" t="s">
         <v>1848</v>
       </c>
+      <c r="H409" t="s">
+        <v>2286</v>
+      </c>
       <c r="X409">
         <v>0</v>
       </c>
@@ -31017,6 +31623,9 @@
       <c r="G410" t="s">
         <v>1805</v>
       </c>
+      <c r="H410" t="s">
+        <v>2286</v>
+      </c>
       <c r="X410">
         <v>0</v>
       </c>
@@ -31046,6 +31655,9 @@
       <c r="G411" t="s">
         <v>1807</v>
       </c>
+      <c r="H411" t="s">
+        <v>2286</v>
+      </c>
       <c r="X411">
         <v>0</v>
       </c>
@@ -31075,6 +31687,9 @@
       <c r="G412" t="s">
         <v>1177</v>
       </c>
+      <c r="H412" t="s">
+        <v>2286</v>
+      </c>
       <c r="X412">
         <v>0</v>
       </c>
@@ -31104,6 +31719,9 @@
       <c r="G413" t="s">
         <v>1848</v>
       </c>
+      <c r="H413" t="s">
+        <v>2286</v>
+      </c>
       <c r="X413">
         <v>0</v>
       </c>
@@ -31133,6 +31751,9 @@
       <c r="G414" t="s">
         <v>1848</v>
       </c>
+      <c r="H414" t="s">
+        <v>2286</v>
+      </c>
       <c r="V414" t="s">
         <v>1647</v>
       </c>
@@ -31165,6 +31786,9 @@
       <c r="G415" t="s">
         <v>1807</v>
       </c>
+      <c r="H415" t="s">
+        <v>2286</v>
+      </c>
       <c r="X415">
         <v>0</v>
       </c>
@@ -31194,6 +31818,9 @@
       <c r="G416" t="s">
         <v>1807</v>
       </c>
+      <c r="H416" t="s">
+        <v>2286</v>
+      </c>
       <c r="X416">
         <v>0</v>
       </c>
@@ -31223,6 +31850,9 @@
       <c r="G417" t="s">
         <v>1848</v>
       </c>
+      <c r="H417" t="s">
+        <v>2286</v>
+      </c>
       <c r="X417">
         <v>0</v>
       </c>
@@ -31252,6 +31882,9 @@
       <c r="G418" t="s">
         <v>1881</v>
       </c>
+      <c r="H418" t="s">
+        <v>2286</v>
+      </c>
       <c r="X418">
         <v>0</v>
       </c>
@@ -31281,6 +31914,9 @@
       <c r="G419" t="s">
         <v>1848</v>
       </c>
+      <c r="H419" t="s">
+        <v>2286</v>
+      </c>
       <c r="X419">
         <v>0</v>
       </c>
@@ -31310,6 +31946,9 @@
       <c r="G420" t="s">
         <v>1881</v>
       </c>
+      <c r="H420" t="s">
+        <v>2286</v>
+      </c>
       <c r="X420">
         <v>0</v>
       </c>
@@ -31339,6 +31978,9 @@
       <c r="G421" t="s">
         <v>1848</v>
       </c>
+      <c r="H421" t="s">
+        <v>2286</v>
+      </c>
       <c r="X421">
         <v>0</v>
       </c>
@@ -31368,6 +32010,9 @@
       <c r="G422" t="s">
         <v>1848</v>
       </c>
+      <c r="H422" t="s">
+        <v>2286</v>
+      </c>
       <c r="X422">
         <v>0</v>
       </c>
@@ -31397,6 +32042,9 @@
       <c r="G423" t="s">
         <v>1951</v>
       </c>
+      <c r="H423" t="s">
+        <v>2286</v>
+      </c>
       <c r="X423">
         <v>0</v>
       </c>
@@ -31426,6 +32074,9 @@
       <c r="G424" t="s">
         <v>1807</v>
       </c>
+      <c r="H424" t="s">
+        <v>2286</v>
+      </c>
       <c r="X424">
         <v>0</v>
       </c>
@@ -31455,6 +32106,9 @@
       <c r="G425" t="s">
         <v>1848</v>
       </c>
+      <c r="H425" t="s">
+        <v>2286</v>
+      </c>
       <c r="X425">
         <v>0</v>
       </c>
@@ -31484,6 +32138,9 @@
       <c r="G426" t="s">
         <v>1881</v>
       </c>
+      <c r="H426" t="s">
+        <v>2286</v>
+      </c>
       <c r="X426">
         <v>0</v>
       </c>
@@ -31513,6 +32170,9 @@
       <c r="G427" t="s">
         <v>1848</v>
       </c>
+      <c r="H427" t="s">
+        <v>2286</v>
+      </c>
       <c r="X427">
         <v>0</v>
       </c>
@@ -31542,6 +32202,9 @@
       <c r="G428" t="s">
         <v>1807</v>
       </c>
+      <c r="H428" t="s">
+        <v>2286</v>
+      </c>
       <c r="X428">
         <v>0</v>
       </c>
@@ -31571,6 +32234,9 @@
       <c r="G429" t="s">
         <v>1807</v>
       </c>
+      <c r="H429" t="s">
+        <v>2286</v>
+      </c>
       <c r="X429">
         <v>0</v>
       </c>
@@ -31600,6 +32266,9 @@
       <c r="G430" t="s">
         <v>1807</v>
       </c>
+      <c r="H430" t="s">
+        <v>2286</v>
+      </c>
       <c r="X430">
         <v>0</v>
       </c>
@@ -31629,6 +32298,9 @@
       <c r="G431" t="s">
         <v>1807</v>
       </c>
+      <c r="H431" t="s">
+        <v>2286</v>
+      </c>
       <c r="X431">
         <v>0</v>
       </c>
@@ -31658,6 +32330,9 @@
       <c r="G432" t="s">
         <v>1848</v>
       </c>
+      <c r="H432" t="s">
+        <v>2286</v>
+      </c>
       <c r="X432">
         <v>0</v>
       </c>
@@ -31687,6 +32362,9 @@
       <c r="G433" t="s">
         <v>1807</v>
       </c>
+      <c r="H433" t="s">
+        <v>2286</v>
+      </c>
       <c r="X433">
         <v>0</v>
       </c>
@@ -31716,6 +32394,9 @@
       <c r="G434" t="s">
         <v>1807</v>
       </c>
+      <c r="H434" t="s">
+        <v>2286</v>
+      </c>
       <c r="X434">
         <v>0</v>
       </c>
@@ -31745,6 +32426,9 @@
       <c r="G435" t="s">
         <v>1177</v>
       </c>
+      <c r="H435" t="s">
+        <v>2286</v>
+      </c>
       <c r="X435">
         <v>0</v>
       </c>
@@ -31774,6 +32458,9 @@
       <c r="G436" t="s">
         <v>1848</v>
       </c>
+      <c r="H436" t="s">
+        <v>2286</v>
+      </c>
       <c r="X436">
         <v>0</v>
       </c>
@@ -31803,6 +32490,9 @@
       <c r="G437" t="s">
         <v>1951</v>
       </c>
+      <c r="H437" t="s">
+        <v>2286</v>
+      </c>
       <c r="X437">
         <v>0</v>
       </c>
@@ -31832,6 +32522,9 @@
       <c r="G438" t="s">
         <v>1848</v>
       </c>
+      <c r="H438" t="s">
+        <v>2286</v>
+      </c>
       <c r="X438">
         <v>0</v>
       </c>
@@ -31861,6 +32554,9 @@
       <c r="G439" t="s">
         <v>1848</v>
       </c>
+      <c r="H439" t="s">
+        <v>2286</v>
+      </c>
       <c r="X439">
         <v>0</v>
       </c>
@@ -31890,6 +32586,9 @@
       <c r="G440" t="s">
         <v>1848</v>
       </c>
+      <c r="H440" t="s">
+        <v>2286</v>
+      </c>
       <c r="X440">
         <v>0</v>
       </c>
@@ -31919,6 +32618,9 @@
       <c r="G441" t="s">
         <v>1881</v>
       </c>
+      <c r="H441" t="s">
+        <v>2286</v>
+      </c>
       <c r="X441">
         <v>0</v>
       </c>
@@ -31948,6 +32650,9 @@
       <c r="G442" t="s">
         <v>1807</v>
       </c>
+      <c r="H442" t="s">
+        <v>2286</v>
+      </c>
       <c r="X442">
         <v>0</v>
       </c>
@@ -31977,6 +32682,9 @@
       <c r="G443" t="s">
         <v>1881</v>
       </c>
+      <c r="H443" t="s">
+        <v>2286</v>
+      </c>
       <c r="X443">
         <v>0</v>
       </c>
@@ -32006,6 +32714,9 @@
       <c r="G444" t="s">
         <v>1848</v>
       </c>
+      <c r="H444" t="s">
+        <v>2286</v>
+      </c>
       <c r="X444">
         <v>0</v>
       </c>
@@ -32035,6 +32746,9 @@
       <c r="G445" t="s">
         <v>1881</v>
       </c>
+      <c r="H445" t="s">
+        <v>2286</v>
+      </c>
       <c r="X445">
         <v>0</v>
       </c>
@@ -32064,6 +32778,9 @@
       <c r="G446" t="s">
         <v>1177</v>
       </c>
+      <c r="H446" t="s">
+        <v>2286</v>
+      </c>
       <c r="X446">
         <v>0</v>
       </c>
@@ -32093,6 +32810,9 @@
       <c r="G447" t="s">
         <v>1177</v>
       </c>
+      <c r="H447" t="s">
+        <v>2286</v>
+      </c>
       <c r="X447">
         <v>0</v>
       </c>
@@ -32122,6 +32842,9 @@
       <c r="G448" t="s">
         <v>1177</v>
       </c>
+      <c r="H448" t="s">
+        <v>2286</v>
+      </c>
       <c r="X448">
         <v>0</v>
       </c>
@@ -32151,6 +32874,9 @@
       <c r="G449" t="s">
         <v>1881</v>
       </c>
+      <c r="H449" t="s">
+        <v>2286</v>
+      </c>
       <c r="X449">
         <v>0</v>
       </c>
@@ -32180,6 +32906,9 @@
       <c r="G450" t="s">
         <v>1881</v>
       </c>
+      <c r="H450" t="s">
+        <v>2286</v>
+      </c>
       <c r="X450">
         <v>0</v>
       </c>
@@ -32209,6 +32938,9 @@
       <c r="G451" t="s">
         <v>1881</v>
       </c>
+      <c r="H451" t="s">
+        <v>2286</v>
+      </c>
       <c r="X451">
         <v>0</v>
       </c>
@@ -32238,6 +32970,9 @@
       <c r="G452" t="s">
         <v>1848</v>
       </c>
+      <c r="H452" t="s">
+        <v>2286</v>
+      </c>
       <c r="X452">
         <v>0</v>
       </c>
@@ -32267,6 +33002,9 @@
       <c r="G453" t="s">
         <v>1807</v>
       </c>
+      <c r="H453" t="s">
+        <v>2286</v>
+      </c>
       <c r="X453">
         <v>0</v>
       </c>
@@ -32296,6 +33034,9 @@
       <c r="G454" t="s">
         <v>1951</v>
       </c>
+      <c r="H454" t="s">
+        <v>2286</v>
+      </c>
       <c r="X454">
         <v>0</v>
       </c>
@@ -32325,6 +33066,9 @@
       <c r="G455" t="s">
         <v>1807</v>
       </c>
+      <c r="H455" t="s">
+        <v>2286</v>
+      </c>
       <c r="X455">
         <v>0</v>
       </c>
@@ -32354,6 +33098,9 @@
       <c r="G456" t="s">
         <v>1848</v>
       </c>
+      <c r="H456" t="s">
+        <v>2286</v>
+      </c>
       <c r="X456">
         <v>0</v>
       </c>
@@ -32383,6 +33130,9 @@
       <c r="G457" t="s">
         <v>1807</v>
       </c>
+      <c r="H457" t="s">
+        <v>2286</v>
+      </c>
       <c r="X457">
         <v>0</v>
       </c>
@@ -32412,6 +33162,9 @@
       <c r="G458" t="s">
         <v>1848</v>
       </c>
+      <c r="H458" t="s">
+        <v>2286</v>
+      </c>
       <c r="X458">
         <v>0</v>
       </c>
@@ -32441,6 +33194,9 @@
       <c r="G459" t="s">
         <v>1177</v>
       </c>
+      <c r="H459" t="s">
+        <v>2286</v>
+      </c>
       <c r="X459">
         <v>0</v>
       </c>
@@ -32470,6 +33226,9 @@
       <c r="G460" t="s">
         <v>1177</v>
       </c>
+      <c r="H460" t="s">
+        <v>2286</v>
+      </c>
       <c r="X460">
         <v>0</v>
       </c>
@@ -32499,6 +33258,9 @@
       <c r="G461" t="s">
         <v>1805</v>
       </c>
+      <c r="H461" t="s">
+        <v>2286</v>
+      </c>
       <c r="X461">
         <v>0</v>
       </c>
@@ -32528,6 +33290,9 @@
       <c r="G462" t="s">
         <v>1848</v>
       </c>
+      <c r="H462" t="s">
+        <v>2286</v>
+      </c>
       <c r="X462">
         <v>0</v>
       </c>
@@ -32557,6 +33322,9 @@
       <c r="G463" t="s">
         <v>1807</v>
       </c>
+      <c r="H463" t="s">
+        <v>2286</v>
+      </c>
       <c r="X463">
         <v>0</v>
       </c>
@@ -32586,6 +33354,9 @@
       <c r="G464" t="s">
         <v>1805</v>
       </c>
+      <c r="H464" t="s">
+        <v>2286</v>
+      </c>
       <c r="X464">
         <v>0</v>
       </c>
@@ -32615,6 +33386,9 @@
       <c r="G465" t="s">
         <v>1807</v>
       </c>
+      <c r="H465" t="s">
+        <v>2286</v>
+      </c>
       <c r="V465" t="s">
         <v>2117</v>
       </c>
@@ -32647,6 +33421,9 @@
       <c r="G466" t="s">
         <v>1805</v>
       </c>
+      <c r="H466" t="s">
+        <v>2286</v>
+      </c>
       <c r="X466">
         <v>0</v>
       </c>
@@ -32676,6 +33453,9 @@
       <c r="G467" t="s">
         <v>1848</v>
       </c>
+      <c r="H467" t="s">
+        <v>2286</v>
+      </c>
       <c r="X467">
         <v>0</v>
       </c>
@@ -32705,6 +33485,9 @@
       <c r="G468" t="s">
         <v>1881</v>
       </c>
+      <c r="H468" t="s">
+        <v>2286</v>
+      </c>
       <c r="X468">
         <v>0</v>
       </c>
@@ -32734,6 +33517,9 @@
       <c r="G469" t="s">
         <v>1848</v>
       </c>
+      <c r="H469" t="s">
+        <v>2286</v>
+      </c>
       <c r="X469">
         <v>0</v>
       </c>
@@ -32763,6 +33549,9 @@
       <c r="G470" t="s">
         <v>1881</v>
       </c>
+      <c r="H470" t="s">
+        <v>2286</v>
+      </c>
       <c r="X470">
         <v>0</v>
       </c>
@@ -32792,6 +33581,9 @@
       <c r="G471" t="s">
         <v>1881</v>
       </c>
+      <c r="H471" t="s">
+        <v>2286</v>
+      </c>
       <c r="X471">
         <v>0</v>
       </c>
@@ -32821,6 +33613,9 @@
       <c r="G472" t="s">
         <v>1951</v>
       </c>
+      <c r="H472" t="s">
+        <v>2286</v>
+      </c>
       <c r="X472">
         <v>0</v>
       </c>
@@ -32850,6 +33645,9 @@
       <c r="G473" t="s">
         <v>1881</v>
       </c>
+      <c r="H473" t="s">
+        <v>2286</v>
+      </c>
       <c r="X473">
         <v>0</v>
       </c>
@@ -32879,6 +33677,9 @@
       <c r="G474" t="s">
         <v>1805</v>
       </c>
+      <c r="H474" t="s">
+        <v>2286</v>
+      </c>
       <c r="X474">
         <v>0</v>
       </c>
@@ -32908,6 +33709,9 @@
       <c r="G475" t="s">
         <v>1177</v>
       </c>
+      <c r="H475" t="s">
+        <v>2286</v>
+      </c>
       <c r="X475">
         <v>0</v>
       </c>
@@ -32937,6 +33741,9 @@
       <c r="G476" t="s">
         <v>1177</v>
       </c>
+      <c r="H476" t="s">
+        <v>2286</v>
+      </c>
       <c r="X476">
         <v>0</v>
       </c>
@@ -32966,6 +33773,9 @@
       <c r="G477" t="s">
         <v>1177</v>
       </c>
+      <c r="H477" t="s">
+        <v>2286</v>
+      </c>
       <c r="X477">
         <v>0</v>
       </c>
@@ -32995,6 +33805,9 @@
       <c r="G478" t="s">
         <v>1177</v>
       </c>
+      <c r="H478" t="s">
+        <v>2286</v>
+      </c>
       <c r="X478">
         <v>0</v>
       </c>
@@ -33024,6 +33837,9 @@
       <c r="G479" t="s">
         <v>1177</v>
       </c>
+      <c r="H479" t="s">
+        <v>2286</v>
+      </c>
       <c r="X479">
         <v>0</v>
       </c>
@@ -33053,6 +33869,9 @@
       <c r="G480" t="s">
         <v>1177</v>
       </c>
+      <c r="H480" t="s">
+        <v>2286</v>
+      </c>
       <c r="X480">
         <v>0</v>
       </c>
@@ -33082,6 +33901,9 @@
       <c r="G481" t="s">
         <v>1951</v>
       </c>
+      <c r="H481" t="s">
+        <v>2286</v>
+      </c>
       <c r="X481">
         <v>0</v>
       </c>
@@ -33111,6 +33933,9 @@
       <c r="G482" t="s">
         <v>1807</v>
       </c>
+      <c r="H482" t="s">
+        <v>2286</v>
+      </c>
       <c r="X482">
         <v>0</v>
       </c>
@@ -33140,6 +33965,9 @@
       <c r="G483" t="s">
         <v>1807</v>
       </c>
+      <c r="H483" t="s">
+        <v>2286</v>
+      </c>
       <c r="X483">
         <v>0</v>
       </c>
@@ -33169,6 +33997,9 @@
       <c r="G484" t="s">
         <v>1848</v>
       </c>
+      <c r="H484" t="s">
+        <v>2286</v>
+      </c>
       <c r="X484">
         <v>0</v>
       </c>
@@ -33198,6 +34029,9 @@
       <c r="G485" t="s">
         <v>1881</v>
       </c>
+      <c r="H485" t="s">
+        <v>2286</v>
+      </c>
       <c r="X485">
         <v>0</v>
       </c>
@@ -33227,6 +34061,9 @@
       <c r="G486" t="s">
         <v>1805</v>
       </c>
+      <c r="H486" t="s">
+        <v>2286</v>
+      </c>
       <c r="X486">
         <v>0</v>
       </c>
@@ -33256,6 +34093,9 @@
       <c r="G487" t="s">
         <v>1848</v>
       </c>
+      <c r="H487" t="s">
+        <v>2286</v>
+      </c>
       <c r="V487" t="s">
         <v>87</v>
       </c>
@@ -33288,6 +34128,9 @@
       <c r="G488" t="s">
         <v>1848</v>
       </c>
+      <c r="H488" t="s">
+        <v>2286</v>
+      </c>
       <c r="L488" t="s">
         <v>1164</v>
       </c>
@@ -33323,6 +34166,9 @@
       <c r="G489" t="s">
         <v>1848</v>
       </c>
+      <c r="H489" t="s">
+        <v>2286</v>
+      </c>
       <c r="V489" t="s">
         <v>1490</v>
       </c>
@@ -33355,6 +34201,9 @@
       <c r="G490" t="s">
         <v>1881</v>
       </c>
+      <c r="H490" t="s">
+        <v>2286</v>
+      </c>
       <c r="X490">
         <v>0</v>
       </c>
@@ -33384,6 +34233,9 @@
       <c r="G491" t="s">
         <v>1848</v>
       </c>
+      <c r="H491" t="s">
+        <v>2286</v>
+      </c>
       <c r="X491">
         <v>0</v>
       </c>
@@ -33413,6 +34265,9 @@
       <c r="G492" t="s">
         <v>1848</v>
       </c>
+      <c r="H492" t="s">
+        <v>2286</v>
+      </c>
       <c r="X492">
         <v>0</v>
       </c>
@@ -33442,6 +34297,9 @@
       <c r="G493" t="s">
         <v>1881</v>
       </c>
+      <c r="H493" t="s">
+        <v>2286</v>
+      </c>
       <c r="X493">
         <v>0</v>
       </c>
@@ -33471,6 +34329,9 @@
       <c r="G494" t="s">
         <v>1848</v>
       </c>
+      <c r="H494" t="s">
+        <v>2286</v>
+      </c>
       <c r="L494" t="s">
         <v>1345</v>
       </c>
@@ -33506,6 +34367,9 @@
       <c r="G495" t="s">
         <v>1881</v>
       </c>
+      <c r="H495" t="s">
+        <v>2286</v>
+      </c>
       <c r="X495">
         <v>0</v>
       </c>
@@ -33535,6 +34399,9 @@
       <c r="G496" t="s">
         <v>1848</v>
       </c>
+      <c r="H496" t="s">
+        <v>2286</v>
+      </c>
       <c r="X496">
         <v>0</v>
       </c>
@@ -33564,6 +34431,9 @@
       <c r="G497" t="s">
         <v>1848</v>
       </c>
+      <c r="H497" t="s">
+        <v>2286</v>
+      </c>
       <c r="X497">
         <v>0</v>
       </c>
@@ -33593,6 +34463,9 @@
       <c r="G498" t="s">
         <v>1848</v>
       </c>
+      <c r="H498" t="s">
+        <v>2286</v>
+      </c>
       <c r="X498">
         <v>0</v>
       </c>
@@ -33622,6 +34495,9 @@
       <c r="G499" t="s">
         <v>1805</v>
       </c>
+      <c r="H499" t="s">
+        <v>2286</v>
+      </c>
       <c r="X499">
         <v>0</v>
       </c>
@@ -33651,6 +34527,9 @@
       <c r="G500" t="s">
         <v>1807</v>
       </c>
+      <c r="H500" t="s">
+        <v>2286</v>
+      </c>
       <c r="X500">
         <v>0</v>
       </c>
@@ -33680,6 +34559,9 @@
       <c r="G501" t="s">
         <v>1881</v>
       </c>
+      <c r="H501" t="s">
+        <v>2286</v>
+      </c>
       <c r="X501">
         <v>0</v>
       </c>
@@ -33709,6 +34591,9 @@
       <c r="G502" t="s">
         <v>1807</v>
       </c>
+      <c r="H502" t="s">
+        <v>2286</v>
+      </c>
       <c r="X502">
         <v>0</v>
       </c>
@@ -33738,6 +34623,9 @@
       <c r="G503" t="s">
         <v>1848</v>
       </c>
+      <c r="H503" t="s">
+        <v>2286</v>
+      </c>
       <c r="X503">
         <v>0</v>
       </c>
@@ -33767,6 +34655,9 @@
       <c r="G504" t="s">
         <v>1881</v>
       </c>
+      <c r="H504" t="s">
+        <v>2286</v>
+      </c>
       <c r="X504">
         <v>0</v>
       </c>
@@ -33796,6 +34687,9 @@
       <c r="G505" t="s">
         <v>1881</v>
       </c>
+      <c r="H505" t="s">
+        <v>2286</v>
+      </c>
       <c r="X505">
         <v>0</v>
       </c>
@@ -33825,6 +34719,9 @@
       <c r="G506" t="s">
         <v>1848</v>
       </c>
+      <c r="H506" t="s">
+        <v>2286</v>
+      </c>
       <c r="X506">
         <v>0</v>
       </c>
@@ -33854,6 +34751,9 @@
       <c r="G507" t="s">
         <v>1848</v>
       </c>
+      <c r="H507" t="s">
+        <v>2286</v>
+      </c>
       <c r="X507">
         <v>0</v>
       </c>
@@ -33883,6 +34783,9 @@
       <c r="G508" t="s">
         <v>1807</v>
       </c>
+      <c r="H508" t="s">
+        <v>2286</v>
+      </c>
       <c r="X508">
         <v>0</v>
       </c>
@@ -33912,6 +34815,9 @@
       <c r="G509" t="s">
         <v>1807</v>
       </c>
+      <c r="H509" t="s">
+        <v>2286</v>
+      </c>
       <c r="X509">
         <v>0</v>
       </c>
@@ -33941,6 +34847,9 @@
       <c r="G510" t="s">
         <v>1848</v>
       </c>
+      <c r="H510" t="s">
+        <v>2286</v>
+      </c>
       <c r="X510">
         <v>0</v>
       </c>
@@ -33970,6 +34879,9 @@
       <c r="G511" t="s">
         <v>1805</v>
       </c>
+      <c r="H511" t="s">
+        <v>2286</v>
+      </c>
       <c r="X511">
         <v>0</v>
       </c>
@@ -33999,6 +34911,9 @@
       <c r="G512" t="s">
         <v>1881</v>
       </c>
+      <c r="H512" t="s">
+        <v>2286</v>
+      </c>
       <c r="X512">
         <v>0</v>
       </c>
@@ -34028,6 +34943,9 @@
       <c r="G513" t="s">
         <v>1881</v>
       </c>
+      <c r="H513" t="s">
+        <v>2286</v>
+      </c>
       <c r="X513">
         <v>0</v>
       </c>
@@ -34057,6 +34975,9 @@
       <c r="G514" t="s">
         <v>1805</v>
       </c>
+      <c r="H514" t="s">
+        <v>2286</v>
+      </c>
       <c r="L514" t="s">
         <v>1316</v>
       </c>
@@ -34089,6 +35010,9 @@
       <c r="G515" t="s">
         <v>1848</v>
       </c>
+      <c r="H515" t="s">
+        <v>2286</v>
+      </c>
       <c r="X515">
         <v>0</v>
       </c>
@@ -34118,6 +35042,9 @@
       <c r="G516" t="s">
         <v>1848</v>
       </c>
+      <c r="H516" t="s">
+        <v>2286</v>
+      </c>
       <c r="X516">
         <v>0</v>
       </c>
@@ -34147,6 +35074,9 @@
       <c r="G517" t="s">
         <v>1881</v>
       </c>
+      <c r="H517" t="s">
+        <v>2286</v>
+      </c>
       <c r="X517">
         <v>0</v>
       </c>
@@ -34176,6 +35106,9 @@
       <c r="G518" t="s">
         <v>1881</v>
       </c>
+      <c r="H518" t="s">
+        <v>2286</v>
+      </c>
       <c r="X518">
         <v>0</v>
       </c>
@@ -34205,6 +35138,9 @@
       <c r="G519" t="s">
         <v>1807</v>
       </c>
+      <c r="H519" t="s">
+        <v>2286</v>
+      </c>
       <c r="X519">
         <v>0</v>
       </c>
@@ -34234,6 +35170,9 @@
       <c r="G520" t="s">
         <v>1848</v>
       </c>
+      <c r="H520" t="s">
+        <v>2286</v>
+      </c>
       <c r="X520">
         <v>0</v>
       </c>
@@ -34263,6 +35202,9 @@
       <c r="G521" t="s">
         <v>230</v>
       </c>
+      <c r="H521" t="s">
+        <v>2286</v>
+      </c>
       <c r="X521">
         <v>0</v>
       </c>
@@ -34292,6 +35234,9 @@
       <c r="G522" t="s">
         <v>1807</v>
       </c>
+      <c r="H522" t="s">
+        <v>2286</v>
+      </c>
       <c r="X522">
         <v>0</v>
       </c>
@@ -34321,6 +35266,9 @@
       <c r="G523" t="s">
         <v>1848</v>
       </c>
+      <c r="H523" t="s">
+        <v>2286</v>
+      </c>
       <c r="X523">
         <v>0</v>
       </c>
@@ -34350,6 +35298,9 @@
       <c r="G524" t="s">
         <v>1848</v>
       </c>
+      <c r="H524" t="s">
+        <v>2286</v>
+      </c>
       <c r="X524">
         <v>0</v>
       </c>
@@ -34379,6 +35330,9 @@
       <c r="G525" t="s">
         <v>1848</v>
       </c>
+      <c r="H525" t="s">
+        <v>2286</v>
+      </c>
       <c r="X525">
         <v>0</v>
       </c>
@@ -34408,6 +35362,9 @@
       <c r="G526" t="s">
         <v>1848</v>
       </c>
+      <c r="H526" t="s">
+        <v>2286</v>
+      </c>
       <c r="X526">
         <v>0</v>
       </c>
@@ -34437,6 +35394,9 @@
       <c r="G527" t="s">
         <v>1807</v>
       </c>
+      <c r="H527" t="s">
+        <v>2286</v>
+      </c>
       <c r="X527">
         <v>0</v>
       </c>
@@ -34466,6 +35426,9 @@
       <c r="G528" t="s">
         <v>1881</v>
       </c>
+      <c r="H528" t="s">
+        <v>2286</v>
+      </c>
       <c r="X528">
         <v>0</v>
       </c>
@@ -34495,6 +35458,9 @@
       <c r="G529" t="s">
         <v>1807</v>
       </c>
+      <c r="H529" t="s">
+        <v>2286</v>
+      </c>
       <c r="X529">
         <v>0</v>
       </c>
@@ -34524,6 +35490,9 @@
       <c r="G530" t="s">
         <v>1848</v>
       </c>
+      <c r="H530" t="s">
+        <v>2286</v>
+      </c>
       <c r="X530">
         <v>0</v>
       </c>
@@ -34553,6 +35522,9 @@
       <c r="G531" t="s">
         <v>1807</v>
       </c>
+      <c r="H531" t="s">
+        <v>2286</v>
+      </c>
       <c r="X531">
         <v>0</v>
       </c>
@@ -34582,6 +35554,9 @@
       <c r="G532" t="s">
         <v>1848</v>
       </c>
+      <c r="H532" t="s">
+        <v>2286</v>
+      </c>
       <c r="X532">
         <v>0</v>
       </c>
@@ -34611,6 +35586,9 @@
       <c r="G533" t="s">
         <v>1881</v>
       </c>
+      <c r="H533" t="s">
+        <v>2286</v>
+      </c>
       <c r="X533">
         <v>0</v>
       </c>
@@ -34640,6 +35618,9 @@
       <c r="G534" t="s">
         <v>1807</v>
       </c>
+      <c r="H534" t="s">
+        <v>2286</v>
+      </c>
       <c r="X534">
         <v>0</v>
       </c>
@@ -34669,6 +35650,9 @@
       <c r="G535" t="s">
         <v>1848</v>
       </c>
+      <c r="H535" t="s">
+        <v>2286</v>
+      </c>
       <c r="X535">
         <v>0</v>
       </c>
@@ -34698,6 +35682,9 @@
       <c r="G536" t="s">
         <v>230</v>
       </c>
+      <c r="H536" t="s">
+        <v>2286</v>
+      </c>
       <c r="X536">
         <v>0</v>
       </c>
@@ -34727,6 +35714,9 @@
       <c r="G537" t="s">
         <v>230</v>
       </c>
+      <c r="H537" t="s">
+        <v>2286</v>
+      </c>
       <c r="X537">
         <v>0</v>
       </c>
@@ -34824,6 +35814,9 @@
       <c r="G539" t="s">
         <v>230</v>
       </c>
+      <c r="H539" t="s">
+        <v>2286</v>
+      </c>
       <c r="L539" t="s">
         <v>207</v>
       </c>
@@ -34856,6 +35849,9 @@
       <c r="G540" t="s">
         <v>230</v>
       </c>
+      <c r="H540" t="s">
+        <v>2286</v>
+      </c>
       <c r="V540" t="s">
         <v>821</v>
       </c>
@@ -34888,6 +35884,9 @@
       <c r="G541" t="s">
         <v>230</v>
       </c>
+      <c r="H541" t="s">
+        <v>2286</v>
+      </c>
       <c r="X541">
         <v>0</v>
       </c>
@@ -34917,6 +35916,9 @@
       <c r="G542" t="s">
         <v>230</v>
       </c>
+      <c r="H542" t="s">
+        <v>2286</v>
+      </c>
       <c r="X542">
         <v>0</v>
       </c>
@@ -34946,6 +35948,9 @@
       <c r="G543" t="s">
         <v>230</v>
       </c>
+      <c r="H543" t="s">
+        <v>2286</v>
+      </c>
       <c r="X543">
         <v>0</v>
       </c>
@@ -34975,6 +35980,9 @@
       <c r="G544" t="s">
         <v>230</v>
       </c>
+      <c r="H544" t="s">
+        <v>2286</v>
+      </c>
       <c r="W544" t="s">
         <v>2207</v>
       </c>
@@ -35007,6 +36015,9 @@
       <c r="G545" t="s">
         <v>230</v>
       </c>
+      <c r="H545" t="s">
+        <v>2286</v>
+      </c>
       <c r="X545">
         <v>0</v>
       </c>
@@ -35036,6 +36047,9 @@
       <c r="G546" t="s">
         <v>230</v>
       </c>
+      <c r="H546" t="s">
+        <v>2286</v>
+      </c>
       <c r="X546">
         <v>0</v>
       </c>
@@ -35065,6 +36079,9 @@
       <c r="G547" t="s">
         <v>230</v>
       </c>
+      <c r="H547" t="s">
+        <v>2286</v>
+      </c>
       <c r="X547">
         <v>0</v>
       </c>
@@ -35094,6 +36111,9 @@
       <c r="G548" t="s">
         <v>230</v>
       </c>
+      <c r="H548" t="s">
+        <v>2286</v>
+      </c>
       <c r="X548">
         <v>0</v>
       </c>
@@ -35123,6 +36143,9 @@
       <c r="G549" t="s">
         <v>230</v>
       </c>
+      <c r="H549" t="s">
+        <v>2286</v>
+      </c>
       <c r="X549">
         <v>0</v>
       </c>
@@ -35152,6 +36175,9 @@
       <c r="G550" t="s">
         <v>230</v>
       </c>
+      <c r="H550" t="s">
+        <v>2286</v>
+      </c>
       <c r="V550" t="s">
         <v>2117</v>
       </c>
@@ -35184,6 +36210,9 @@
       <c r="G551" t="s">
         <v>230</v>
       </c>
+      <c r="H551" t="s">
+        <v>2286</v>
+      </c>
       <c r="X551">
         <v>0</v>
       </c>
@@ -35213,6 +36242,9 @@
       <c r="G552" t="s">
         <v>230</v>
       </c>
+      <c r="H552" t="s">
+        <v>2286</v>
+      </c>
       <c r="X552">
         <v>0</v>
       </c>
@@ -35242,6 +36274,9 @@
       <c r="G553" t="s">
         <v>230</v>
       </c>
+      <c r="H553" t="s">
+        <v>2286</v>
+      </c>
       <c r="X553">
         <v>0</v>
       </c>
@@ -35271,6 +36306,9 @@
       <c r="G554" t="s">
         <v>230</v>
       </c>
+      <c r="H554" t="s">
+        <v>2286</v>
+      </c>
       <c r="X554">
         <v>0</v>
       </c>
@@ -35300,6 +36338,9 @@
       <c r="G555" t="s">
         <v>230</v>
       </c>
+      <c r="H555" t="s">
+        <v>2286</v>
+      </c>
       <c r="L555" t="s">
         <v>207</v>
       </c>
@@ -35332,6 +36373,9 @@
       <c r="G556" t="s">
         <v>230</v>
       </c>
+      <c r="H556" t="s">
+        <v>2286</v>
+      </c>
       <c r="V556" t="s">
         <v>87</v>
       </c>
@@ -35364,6 +36408,9 @@
       <c r="G557" t="s">
         <v>230</v>
       </c>
+      <c r="H557" t="s">
+        <v>2286</v>
+      </c>
       <c r="X557">
         <v>0</v>
       </c>
@@ -35393,6 +36440,9 @@
       <c r="G558" t="s">
         <v>230</v>
       </c>
+      <c r="H558" t="s">
+        <v>2286</v>
+      </c>
       <c r="X558">
         <v>0</v>
       </c>
@@ -35422,6 +36472,9 @@
       <c r="G559" t="s">
         <v>230</v>
       </c>
+      <c r="H559" t="s">
+        <v>2286</v>
+      </c>
       <c r="X559">
         <v>0</v>
       </c>
@@ -35451,6 +36504,9 @@
       <c r="G560" t="s">
         <v>230</v>
       </c>
+      <c r="H560" t="s">
+        <v>2286</v>
+      </c>
       <c r="X560">
         <v>0</v>
       </c>
@@ -35480,6 +36536,9 @@
       <c r="G561" t="s">
         <v>230</v>
       </c>
+      <c r="H561" t="s">
+        <v>2286</v>
+      </c>
       <c r="V561" t="s">
         <v>821</v>
       </c>
@@ -35512,6 +36571,9 @@
       <c r="G562" t="s">
         <v>230</v>
       </c>
+      <c r="H562" t="s">
+        <v>2286</v>
+      </c>
       <c r="X562">
         <v>0</v>
       </c>
@@ -35541,6 +36603,9 @@
       <c r="G563" t="s">
         <v>230</v>
       </c>
+      <c r="H563" t="s">
+        <v>2286</v>
+      </c>
       <c r="X563">
         <v>0</v>
       </c>
@@ -35570,6 +36635,9 @@
       <c r="G564" t="s">
         <v>230</v>
       </c>
+      <c r="H564" t="s">
+        <v>2286</v>
+      </c>
       <c r="X564">
         <v>0</v>
       </c>
@@ -35599,6 +36667,9 @@
       <c r="G565" t="s">
         <v>230</v>
       </c>
+      <c r="H565" t="s">
+        <v>2286</v>
+      </c>
       <c r="X565">
         <v>0</v>
       </c>
@@ -35628,6 +36699,9 @@
       <c r="G566" t="s">
         <v>230</v>
       </c>
+      <c r="H566" t="s">
+        <v>2286</v>
+      </c>
       <c r="X566">
         <v>0</v>
       </c>
@@ -35657,6 +36731,9 @@
       <c r="G567" t="s">
         <v>230</v>
       </c>
+      <c r="H567" t="s">
+        <v>2286</v>
+      </c>
       <c r="V567" t="s">
         <v>2227</v>
       </c>
@@ -35689,6 +36766,9 @@
       <c r="G568" t="s">
         <v>230</v>
       </c>
+      <c r="H568" t="s">
+        <v>2286</v>
+      </c>
       <c r="L568" t="s">
         <v>1145</v>
       </c>
@@ -35721,6 +36801,9 @@
       <c r="G569" t="s">
         <v>230</v>
       </c>
+      <c r="H569" t="s">
+        <v>2286</v>
+      </c>
       <c r="X569">
         <v>0</v>
       </c>
@@ -35750,6 +36833,9 @@
       <c r="G570" t="s">
         <v>230</v>
       </c>
+      <c r="H570" t="s">
+        <v>2286</v>
+      </c>
       <c r="X570">
         <v>0</v>
       </c>
@@ -35779,6 +36865,9 @@
       <c r="G571" t="s">
         <v>230</v>
       </c>
+      <c r="H571" t="s">
+        <v>2286</v>
+      </c>
       <c r="X571">
         <v>0</v>
       </c>
@@ -35808,6 +36897,9 @@
       <c r="G572" t="s">
         <v>230</v>
       </c>
+      <c r="H572" t="s">
+        <v>2286</v>
+      </c>
       <c r="X572">
         <v>0</v>
       </c>
@@ -35837,6 +36929,9 @@
       <c r="G573" t="s">
         <v>230</v>
       </c>
+      <c r="H573" t="s">
+        <v>2286</v>
+      </c>
       <c r="X573">
         <v>0</v>
       </c>
@@ -35866,6 +36961,9 @@
       <c r="G574" t="s">
         <v>230</v>
       </c>
+      <c r="H574" t="s">
+        <v>2286</v>
+      </c>
       <c r="X574">
         <v>0</v>
       </c>
@@ -35895,6 +36993,9 @@
       <c r="G575" t="s">
         <v>230</v>
       </c>
+      <c r="H575" t="s">
+        <v>2286</v>
+      </c>
       <c r="X575">
         <v>0</v>
       </c>
@@ -35924,6 +37025,9 @@
       <c r="G576" t="s">
         <v>230</v>
       </c>
+      <c r="H576" t="s">
+        <v>2286</v>
+      </c>
       <c r="L576" t="s">
         <v>1164</v>
       </c>
@@ -35956,6 +37060,9 @@
       <c r="G577" t="s">
         <v>230</v>
       </c>
+      <c r="H577" t="s">
+        <v>2286</v>
+      </c>
       <c r="X577">
         <v>0</v>
       </c>
@@ -35985,6 +37092,9 @@
       <c r="G578" t="s">
         <v>230</v>
       </c>
+      <c r="H578" t="s">
+        <v>2286</v>
+      </c>
       <c r="X578">
         <v>0</v>
       </c>
@@ -36014,6 +37124,9 @@
       <c r="G579" t="s">
         <v>230</v>
       </c>
+      <c r="H579" t="s">
+        <v>2286</v>
+      </c>
       <c r="X579">
         <v>0</v>
       </c>
@@ -36043,6 +37156,9 @@
       <c r="G580" t="s">
         <v>230</v>
       </c>
+      <c r="H580" t="s">
+        <v>2286</v>
+      </c>
       <c r="X580">
         <v>0</v>
       </c>
@@ -36072,6 +37188,9 @@
       <c r="G581" t="s">
         <v>230</v>
       </c>
+      <c r="H581" t="s">
+        <v>2286</v>
+      </c>
       <c r="X581">
         <v>0</v>
       </c>
@@ -36101,6 +37220,9 @@
       <c r="G582" t="s">
         <v>230</v>
       </c>
+      <c r="H582" t="s">
+        <v>2286</v>
+      </c>
       <c r="X582">
         <v>0</v>
       </c>
@@ -36130,6 +37252,9 @@
       <c r="G583" t="s">
         <v>230</v>
       </c>
+      <c r="H583" t="s">
+        <v>2286</v>
+      </c>
       <c r="X583">
         <v>0</v>
       </c>
@@ -36159,6 +37284,9 @@
       <c r="G584" t="s">
         <v>230</v>
       </c>
+      <c r="H584" t="s">
+        <v>2286</v>
+      </c>
       <c r="X584">
         <v>0</v>
       </c>
@@ -36188,6 +37316,9 @@
       <c r="G585" t="s">
         <v>230</v>
       </c>
+      <c r="H585" t="s">
+        <v>2286</v>
+      </c>
       <c r="X585">
         <v>0</v>
       </c>
@@ -36217,6 +37348,9 @@
       <c r="G586" t="s">
         <v>230</v>
       </c>
+      <c r="H586" t="s">
+        <v>2286</v>
+      </c>
       <c r="V586" t="s">
         <v>1536</v>
       </c>
@@ -36249,6 +37383,9 @@
       <c r="G587" t="s">
         <v>230</v>
       </c>
+      <c r="H587" t="s">
+        <v>2286</v>
+      </c>
       <c r="X587">
         <v>0</v>
       </c>
@@ -36278,6 +37415,9 @@
       <c r="G588" t="s">
         <v>230</v>
       </c>
+      <c r="H588" t="s">
+        <v>2286</v>
+      </c>
       <c r="X588">
         <v>0</v>
       </c>
@@ -36307,6 +37447,9 @@
       <c r="G589" t="s">
         <v>230</v>
       </c>
+      <c r="H589" t="s">
+        <v>2286</v>
+      </c>
       <c r="X589">
         <v>0</v>
       </c>
@@ -36336,6 +37479,9 @@
       <c r="G590" t="s">
         <v>230</v>
       </c>
+      <c r="H590" t="s">
+        <v>2286</v>
+      </c>
       <c r="X590">
         <v>0</v>
       </c>
@@ -36365,6 +37511,9 @@
       <c r="G591" t="s">
         <v>230</v>
       </c>
+      <c r="H591" t="s">
+        <v>2286</v>
+      </c>
       <c r="X591">
         <v>0</v>
       </c>
@@ -36394,6 +37543,9 @@
       <c r="G592" t="s">
         <v>230</v>
       </c>
+      <c r="H592" t="s">
+        <v>2286</v>
+      </c>
       <c r="X592">
         <v>0</v>
       </c>
@@ -36423,6 +37575,9 @@
       <c r="G593" t="s">
         <v>230</v>
       </c>
+      <c r="H593" t="s">
+        <v>2286</v>
+      </c>
       <c r="X593">
         <v>0</v>
       </c>
@@ -36452,6 +37607,9 @@
       <c r="G594" t="s">
         <v>230</v>
       </c>
+      <c r="H594" t="s">
+        <v>2286</v>
+      </c>
       <c r="X594">
         <v>0</v>
       </c>
@@ -36481,6 +37639,9 @@
       <c r="G595" t="s">
         <v>230</v>
       </c>
+      <c r="H595" t="s">
+        <v>2286</v>
+      </c>
       <c r="X595">
         <v>0</v>
       </c>
@@ -36510,6 +37671,9 @@
       <c r="G596" t="s">
         <v>230</v>
       </c>
+      <c r="H596" t="s">
+        <v>2286</v>
+      </c>
       <c r="X596">
         <v>0</v>
       </c>
@@ -36539,6 +37703,9 @@
       <c r="G597" t="s">
         <v>230</v>
       </c>
+      <c r="H597" t="s">
+        <v>2286</v>
+      </c>
       <c r="X597">
         <v>0</v>
       </c>
@@ -36568,6 +37735,9 @@
       <c r="G598" t="s">
         <v>230</v>
       </c>
+      <c r="H598" t="s">
+        <v>2286</v>
+      </c>
       <c r="X598">
         <v>0</v>
       </c>
@@ -36597,6 +37767,9 @@
       <c r="G599" t="s">
         <v>230</v>
       </c>
+      <c r="H599" t="s">
+        <v>2286</v>
+      </c>
       <c r="X599">
         <v>0</v>
       </c>
@@ -36626,6 +37799,9 @@
       <c r="G600" t="s">
         <v>230</v>
       </c>
+      <c r="H600" t="s">
+        <v>2286</v>
+      </c>
       <c r="X600">
         <v>0</v>
       </c>
@@ -36655,6 +37831,9 @@
       <c r="G601" t="s">
         <v>230</v>
       </c>
+      <c r="H601" t="s">
+        <v>2286</v>
+      </c>
       <c r="X601">
         <v>0</v>
       </c>
@@ -36684,6 +37863,9 @@
       <c r="G602" t="s">
         <v>230</v>
       </c>
+      <c r="H602" t="s">
+        <v>2286</v>
+      </c>
       <c r="X602">
         <v>0</v>
       </c>
@@ -36713,6 +37895,9 @@
       <c r="G603" t="s">
         <v>230</v>
       </c>
+      <c r="H603" t="s">
+        <v>2286</v>
+      </c>
       <c r="X603">
         <v>0</v>
       </c>
@@ -36742,6 +37927,9 @@
       <c r="G604" t="s">
         <v>230</v>
       </c>
+      <c r="H604" t="s">
+        <v>2286</v>
+      </c>
       <c r="X604">
         <v>0</v>
       </c>
@@ -36771,6 +37959,9 @@
       <c r="G605" t="s">
         <v>230</v>
       </c>
+      <c r="H605" t="s">
+        <v>2286</v>
+      </c>
       <c r="X605">
         <v>0</v>
       </c>
@@ -36800,6 +37991,9 @@
       <c r="G606" t="s">
         <v>230</v>
       </c>
+      <c r="H606" t="s">
+        <v>2286</v>
+      </c>
       <c r="X606">
         <v>0</v>
       </c>
@@ -36829,6 +38023,9 @@
       <c r="G607" t="s">
         <v>230</v>
       </c>
+      <c r="H607" t="s">
+        <v>2286</v>
+      </c>
       <c r="X607">
         <v>0</v>
       </c>
@@ -36858,6 +38055,9 @@
       <c r="G608" t="s">
         <v>230</v>
       </c>
+      <c r="H608" t="s">
+        <v>2286</v>
+      </c>
       <c r="X608">
         <v>0</v>
       </c>
@@ -36887,6 +38087,9 @@
       <c r="G609" t="s">
         <v>230</v>
       </c>
+      <c r="H609" t="s">
+        <v>2286</v>
+      </c>
       <c r="X609">
         <v>0</v>
       </c>
@@ -36916,6 +38119,9 @@
       <c r="G610" t="s">
         <v>230</v>
       </c>
+      <c r="H610" t="s">
+        <v>2286</v>
+      </c>
       <c r="X610">
         <v>0</v>
       </c>
@@ -36945,6 +38151,9 @@
       <c r="G611" t="s">
         <v>230</v>
       </c>
+      <c r="H611" t="s">
+        <v>2286</v>
+      </c>
       <c r="X611">
         <v>0</v>
       </c>
@@ -36974,6 +38183,9 @@
       <c r="G612" t="s">
         <v>230</v>
       </c>
+      <c r="H612" t="s">
+        <v>2286</v>
+      </c>
       <c r="X612">
         <v>0</v>
       </c>
@@ -37003,6 +38215,9 @@
       <c r="G613" t="s">
         <v>230</v>
       </c>
+      <c r="H613" t="s">
+        <v>2286</v>
+      </c>
       <c r="X613">
         <v>0</v>
       </c>
@@ -37032,6 +38247,9 @@
       <c r="G614" t="s">
         <v>230</v>
       </c>
+      <c r="H614" t="s">
+        <v>2286</v>
+      </c>
       <c r="X614">
         <v>0</v>
       </c>
@@ -37061,6 +38279,9 @@
       <c r="G615" t="s">
         <v>230</v>
       </c>
+      <c r="H615" t="s">
+        <v>2286</v>
+      </c>
       <c r="X615">
         <v>0</v>
       </c>
@@ -37090,6 +38311,9 @@
       <c r="G616" t="s">
         <v>230</v>
       </c>
+      <c r="H616" t="s">
+        <v>2286</v>
+      </c>
       <c r="X616">
         <v>0</v>
       </c>
@@ -37119,6 +38343,9 @@
       <c r="G617" t="s">
         <v>230</v>
       </c>
+      <c r="H617" t="s">
+        <v>2286</v>
+      </c>
       <c r="X617">
         <v>0</v>
       </c>
@@ -37148,6 +38375,9 @@
       <c r="G618" t="s">
         <v>230</v>
       </c>
+      <c r="H618" t="s">
+        <v>2286</v>
+      </c>
       <c r="X618">
         <v>0</v>
       </c>
@@ -37177,6 +38407,9 @@
       <c r="G619" t="s">
         <v>230</v>
       </c>
+      <c r="H619" t="s">
+        <v>2286</v>
+      </c>
       <c r="X619">
         <v>0</v>
       </c>
@@ -37206,6 +38439,9 @@
       <c r="G620" t="s">
         <v>230</v>
       </c>
+      <c r="H620" t="s">
+        <v>2286</v>
+      </c>
       <c r="V620" t="s">
         <v>130</v>
       </c>
@@ -37238,6 +38474,9 @@
       <c r="G621" t="s">
         <v>230</v>
       </c>
+      <c r="H621" t="s">
+        <v>2286</v>
+      </c>
       <c r="X621">
         <v>0</v>
       </c>
@@ -37266,6 +38505,9 @@
       </c>
       <c r="G622" t="s">
         <v>230</v>
+      </c>
+      <c r="H622" t="s">
+        <v>2286</v>
       </c>
       <c r="X622">
         <v>0</v>
